--- a/data/Verification_Obs_Gage_Data_Linked.xlsx
+++ b/data/Verification_Obs_Gage_Data_Linked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfelletter\Documents\RW-RDF-Process-Plot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD8DA0F-31C2-4658-8B94-3CE5828B0C13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D34E863-B7F5-4FB1-A165-A336ECE1671A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>11_Gage_FlamingGorge</t>
-  </si>
-  <si>
-    <t>12_Gage_LittleSnakeNearLily</t>
-  </si>
-  <si>
-    <t>13_Gage_YampaNearMaybell</t>
   </si>
   <si>
     <t>14_Gage_DuchesneNearRandlett</t>
@@ -305,6 +299,12 @@
   </si>
   <si>
     <t>LAKE POWELL inflow volume acre-feet (SDI=1840)</t>
+  </si>
+  <si>
+    <t>13_Gage_LittleSnakeNearLily</t>
+  </si>
+  <si>
+    <t>12_Gage_YampaNearMaybell</t>
   </si>
 </sst>
 </file>
@@ -768,21 +768,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D212" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W241"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="13"/>
-    <col min="12" max="12" width="8.88671875" style="13"/>
-    <col min="14" max="14" width="8.88671875" style="13"/>
-    <col min="21" max="21" width="8.88671875" style="13"/>
-    <col min="23" max="23" width="8.88671875" style="13"/>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="13"/>
+    <col min="12" max="12" width="8.85546875" style="13"/>
+    <col min="14" max="14" width="8.85546875" style="13"/>
+    <col min="21" max="21" width="8.85546875" style="13"/>
+    <col min="23" max="23" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,39 +826,39 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -942,12 +942,12 @@
         <v>487765.62622999999</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1031,12 +1031,12 @@
         <v>459586.39301</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1120,12 +1120,12 @@
         <v>532951.74338999996</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1209,12 +1209,12 @@
         <v>789596.51122999995</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2000</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1298,12 +1298,12 @@
         <v>1576752.70524</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1387,12 +1387,12 @@
         <v>1316719.00257</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1476,12 +1476,12 @@
         <v>376321.69688</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2000</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1565,12 +1565,12 @@
         <v>295827.28064000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2000</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1654,12 +1654,12 @@
         <v>339549.33661</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2000</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1743,12 +1743,12 @@
         <v>457446.32176000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2000</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1832,12 +1832,12 @@
         <v>366109.51688000001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2000</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1921,12 +1921,12 @@
         <v>348831.9571</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2001</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2010,12 +2010,12 @@
         <v>327699.25374000001</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2001</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2099,12 +2099,12 @@
         <v>333419.09233999997</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2188,12 +2188,12 @@
         <v>500499.81771999999</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2001</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2277,12 +2277,12 @@
         <v>586443.93769000005</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2001</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2366,12 +2366,12 @@
         <v>1698478.45071</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2001</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2455,12 +2455,12 @@
         <v>1148352.2027700001</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2001</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2544,12 +2544,12 @@
         <v>345316.41888000001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2633,12 +2633,12 @@
         <v>420335.28642999998</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2722,12 +2722,12 @@
         <v>322987.92771999998</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2001</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2811,12 +2811,12 @@
         <v>292157.79395999998</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2001</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2900,12 +2900,12 @@
         <v>337230.36450000003</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2001</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2989,12 +2989,12 @@
         <v>280924.00355999998</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2002</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3078,12 +3078,12 @@
         <v>288711.55676000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3167,12 +3167,12 @@
         <v>270268.94108000002</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2002</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3256,12 +3256,12 @@
         <v>339116.23034000001</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2002</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3345,12 +3345,12 @@
         <v>393167.33588000003</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2002</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3434,12 +3434,12 @@
         <v>445027.37401000003</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2002</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3523,12 +3523,12 @@
         <v>344652.07523999998</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2002</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3612,12 +3612,12 @@
         <v>122339.21221</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2002</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3701,12 +3701,12 @@
         <v>130336.14091</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2002</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3790,12 +3790,12 @@
         <v>429700.44657999999</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2002</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3879,12 +3879,12 @@
         <v>321041.25459000003</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2002</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3968,12 +3968,12 @@
         <v>340508.32822000002</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2002</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4057,12 +4057,12 @@
         <v>266496.03402999998</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2003</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4146,12 +4146,12 @@
         <v>247919.05338999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2003</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4235,12 +4235,12 @@
         <v>252534.02973000001</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2003</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4324,12 +4324,12 @@
         <v>380956.40542999998</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2003</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4413,12 +4413,12 @@
         <v>408694.65464999998</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2003</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4502,12 +4502,12 @@
         <v>1234076.6754699999</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2003</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4591,12 +4591,12 @@
         <v>1545340.7616600001</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2003</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4680,12 +4680,12 @@
         <v>338984.78266999999</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2003</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4769,12 +4769,12 @@
         <v>266032.34039000003</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2003</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4858,12 +4858,12 @@
         <v>470197.94708999997</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2003</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4947,12 +4947,12 @@
         <v>334916.27315999998</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2003</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -5036,12 +5036,12 @@
         <v>356036.16116999998</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2003</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -5125,12 +5125,12 @@
         <v>292947.57270999998</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2004</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5214,12 +5214,12 @@
         <v>253400.09448</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2004</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5303,12 +5303,12 @@
         <v>267148.48608</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2004</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5392,12 +5392,12 @@
         <v>432109.89808000001</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2004</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5481,12 +5481,12 @@
         <v>684838.13988000003</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2004</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5570,12 +5570,12 @@
         <v>1022923.73327</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2004</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5659,12 +5659,12 @@
         <v>742864.61496000004</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2004</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5748,12 +5748,12 @@
         <v>336946.40954999998</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2004</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5837,12 +5837,12 @@
         <v>251196.52033999999</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2004</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5926,12 +5926,12 @@
         <v>404158.37349000003</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2004</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6015,12 +6015,12 @@
         <v>495839.37212999997</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2004</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6104,12 +6104,12 @@
         <v>462234.20390000002</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2004</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6193,12 +6193,12 @@
         <v>375588.31585000001</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2005</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6282,12 +6282,12 @@
         <v>585722.16140999994</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2005</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6371,12 +6371,12 @@
         <v>492040.35454999999</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2005</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6460,12 +6460,12 @@
         <v>543484.05122000002</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2005</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6549,12 +6549,12 @@
         <v>1107499.42352</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2005</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6638,12 +6638,12 @@
         <v>2747194.7210599999</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2005</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6727,12 +6727,12 @@
         <v>2820941.4991100002</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2005</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6816,12 +6816,12 @@
         <v>966025.93669999996</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2005</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6905,12 +6905,12 @@
         <v>496437.99589999998</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2005</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6994,12 +6994,12 @@
         <v>453799.82555000001</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2005</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -7083,12 +7083,12 @@
         <v>629884.52043000003</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2005</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -7172,12 +7172,12 @@
         <v>502760.29934000003</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2005</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -7261,12 +7261,12 @@
         <v>394003.69332999998</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2006</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7350,12 +7350,12 @@
         <v>407557.94274999999</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2006</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7439,12 +7439,12 @@
         <v>362562.40886999998</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2006</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7528,12 +7528,12 @@
         <v>518845.19575999997</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2006</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7617,12 +7617,12 @@
         <v>1044494.39877</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2006</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7706,12 +7706,12 @@
         <v>1886061.0458200001</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2006</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7795,12 +7795,12 @@
         <v>1393813.5073800001</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2006</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7884,12 +7884,12 @@
         <v>504253.62734000001</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2006</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7973,12 +7973,12 @@
         <v>448419.69416000001</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2006</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -8062,12 +8062,12 @@
         <v>474752.40946</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2006</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -8151,12 +8151,12 @@
         <v>1297608.28489</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2006</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -8240,12 +8240,12 @@
         <v>516280.26668</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2006</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -8329,12 +8329,12 @@
         <v>459883.14720000001</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2007</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -8418,12 +8418,12 @@
         <v>405205.31312000001</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2007</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -8507,12 +8507,12 @@
         <v>449026.0441</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2007</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -8596,12 +8596,12 @@
         <v>708005.28241999994</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2007</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -8685,12 +8685,12 @@
         <v>781419.47592</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2007</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -8774,12 +8774,12 @@
         <v>1609414.3290299999</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2007</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -8863,12 +8863,12 @@
         <v>1052665.8359600001</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2007</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8952,12 +8952,12 @@
         <v>407791.18638999999</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2007</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -9041,12 +9041,12 @@
         <v>455981.24284999998</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2007</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -9130,12 +9130,12 @@
         <v>472408.07556000003</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2007</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -9219,12 +9219,12 @@
         <v>503731.39066999999</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2007</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -9308,12 +9308,12 @@
         <v>429667.71980999998</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2007</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -9397,12 +9397,12 @@
         <v>423108.71085999999</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2008</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -9486,12 +9486,12 @@
         <v>413339.80949000001</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2008</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -9575,12 +9575,12 @@
         <v>610108.02824999997</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2008</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -9664,12 +9664,12 @@
         <v>756386.32334</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2008</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -9753,12 +9753,12 @@
         <v>1126659.034</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2008</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -9842,12 +9842,12 @@
         <v>2563872.7392000002</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2008</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -9931,12 +9931,12 @@
         <v>3171835.16261</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2008</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -10020,12 +10020,12 @@
         <v>1166793.12996</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2008</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -10109,12 +10109,12 @@
         <v>531615.47949000006</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2008</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -10198,12 +10198,12 @@
         <v>462090.37070999999</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2008</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -10287,12 +10287,12 @@
         <v>423724.08519000001</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2008</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -10376,12 +10376,12 @@
         <v>415954.70662000001</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2008</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -10465,12 +10465,12 @@
         <v>370376.32227</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2009</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -10554,12 +10554,12 @@
         <v>393885.09577999997</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2009</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -10643,12 +10643,12 @@
         <v>376860.17939</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2009</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -10732,12 +10732,12 @@
         <v>464236.39799000003</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2009</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -10821,12 +10821,12 @@
         <v>719176.87803000002</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2009</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -10910,12 +10910,12 @@
         <v>2658254.2743099998</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2009</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -10999,12 +10999,12 @@
         <v>2132398.5375999999</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2009</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -11088,12 +11088,12 @@
         <v>952935.95828000002</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2009</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -11177,12 +11177,12 @@
         <v>405220.22720999998</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2009</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -11266,12 +11266,12 @@
         <v>390725.36683000001</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2009</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -11355,12 +11355,12 @@
         <v>431399.61086000002</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2009</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -11444,12 +11444,12 @@
         <v>434072.38868999999</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2009</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -11533,12 +11533,12 @@
         <v>345430.77432000003</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2010</v>
       </c>
       <c r="B122" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -11622,12 +11622,12 @@
         <v>431776.95043000003</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2010</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -11711,12 +11711,12 @@
         <v>412306.63517000002</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2010</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -11800,12 +11800,12 @@
         <v>533196.76728999999</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2010</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -11889,12 +11889,12 @@
         <v>752736.37083000003</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -11978,12 +11978,12 @@
         <v>1269152.4315599999</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2010</v>
       </c>
       <c r="B127" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -12067,12 +12067,12 @@
         <v>2229577.4952400001</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2010</v>
       </c>
       <c r="B128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -12156,12 +12156,12 @@
         <v>577811.75434999994</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2010</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -12245,12 +12245,12 @@
         <v>620380.99985000002</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2010</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -12334,12 +12334,12 @@
         <v>428576.35187999997</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2010</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -12423,12 +12423,12 @@
         <v>587954.65404000005</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -12512,12 +12512,12 @@
         <v>387046.46432000003</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2010</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -12601,12 +12601,12 @@
         <v>424626.56829000002</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2011</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -12690,12 +12690,12 @@
         <v>307238.61189</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2011</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -12779,12 +12779,12 @@
         <v>340142.85970999999</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2011</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -12868,12 +12868,12 @@
         <v>583427.12184000004</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2011</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -12957,12 +12957,12 @@
         <v>1095998.77263</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2011</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -13046,12 +13046,12 @@
         <v>2467465.7591599999</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2011</v>
       </c>
       <c r="B139" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -13135,12 +13135,12 @@
         <v>4661403.8241499998</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2011</v>
       </c>
       <c r="B140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -13224,12 +13224,12 @@
         <v>3194774.78388</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2011</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -13313,12 +13313,12 @@
         <v>779509.37615000003</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2011</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -13402,12 +13402,12 @@
         <v>668516.71680000005</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2011</v>
       </c>
       <c r="B143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -13491,12 +13491,12 @@
         <v>630107.21719</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2011</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -13580,12 +13580,12 @@
         <v>530054.66377999994</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2011</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -13669,12 +13669,12 @@
         <v>490493.18618000002</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2012</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -13758,12 +13758,12 @@
         <v>503095.88055</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2012</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -13847,12 +13847,12 @@
         <v>459879.63848000002</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2012</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -13936,12 +13936,12 @@
         <v>624751.97967999999</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2012</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -14025,12 +14025,12 @@
         <v>689342.18226999999</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2012</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -14114,12 +14114,12 @@
         <v>769658.01699000003</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2012</v>
       </c>
       <c r="B151" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -14203,12 +14203,12 @@
         <v>397529.58899999998</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2012</v>
       </c>
       <c r="B152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -14292,12 +14292,12 @@
         <v>284532.36988000001</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2012</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -14381,12 +14381,12 @@
         <v>288585.71891</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2012</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -14470,12 +14470,12 @@
         <v>295690.11705</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2012</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -14559,12 +14559,12 @@
         <v>294062.3786</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2012</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -14648,12 +14648,12 @@
         <v>272956.04846000002</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2012</v>
       </c>
       <c r="B157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -14737,12 +14737,12 @@
         <v>247083.98233</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2013</v>
       </c>
       <c r="B158" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -14826,12 +14826,12 @@
         <v>230462.63362000001</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2013</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -14915,12 +14915,12 @@
         <v>299549.33704999997</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2013</v>
       </c>
       <c r="B160" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -15004,12 +15004,12 @@
         <v>356662.66488</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2013</v>
       </c>
       <c r="B161" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -15093,12 +15093,12 @@
         <v>325894.90198999998</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2013</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -15182,12 +15182,12 @@
         <v>924567.49545000005</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2013</v>
       </c>
       <c r="B163" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -15271,12 +15271,12 @@
         <v>906543.22829999996</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2013</v>
       </c>
       <c r="B164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -15360,12 +15360,12 @@
         <v>297719.82405</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2013</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -15449,12 +15449,12 @@
         <v>400897.64656000002</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2013</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -15538,12 +15538,12 @@
         <v>801787.26758999994</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2013</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -15627,12 +15627,12 @@
         <v>475048.33250000002</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2013</v>
       </c>
       <c r="B168" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -15716,12 +15716,12 @@
         <v>434762.72771000001</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2013</v>
       </c>
       <c r="B169" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -15805,12 +15805,12 @@
         <v>291185.16843000002</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2014</v>
       </c>
       <c r="B170" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -15894,12 +15894,12 @@
         <v>271315.01697</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2014</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -15983,12 +15983,12 @@
         <v>320719.40750999999</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2014</v>
       </c>
       <c r="B172" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -16072,12 +16072,12 @@
         <v>444310.40324999997</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2014</v>
       </c>
       <c r="B173" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -16161,12 +16161,12 @@
         <v>774059.78934000002</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2014</v>
       </c>
       <c r="B174" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -16250,12 +16250,12 @@
         <v>1632006.8809199999</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2014</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -16339,12 +16339,12 @@
         <v>2675873.73404</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2014</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -16428,12 +16428,12 @@
         <v>730454.02286000003</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2014</v>
       </c>
       <c r="B177" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -16517,12 +16517,12 @@
         <v>615161.73688999994</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2014</v>
       </c>
       <c r="B178" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -16606,12 +16606,12 @@
         <v>621640.29151999997</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2014</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -16695,12 +16695,12 @@
         <v>635761.09256999998</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2014</v>
       </c>
       <c r="B180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -16784,12 +16784,12 @@
         <v>419693.08267999999</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2014</v>
       </c>
       <c r="B181" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -16873,12 +16873,12 @@
         <v>465223.22602</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2015</v>
       </c>
       <c r="B182" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -16962,12 +16962,12 @@
         <v>448502.52007999999</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2015</v>
       </c>
       <c r="B183" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -17051,12 +17051,12 @@
         <v>464120.49787000002</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2015</v>
       </c>
       <c r="B184" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -17140,12 +17140,12 @@
         <v>543432.27494999999</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2015</v>
       </c>
       <c r="B185" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -17229,12 +17229,12 @@
         <v>539283.27774000005</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2015</v>
       </c>
       <c r="B186" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -17318,12 +17318,12 @@
         <v>1431243.7907700001</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2015</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -17407,12 +17407,12 @@
         <v>2569954.8813</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2015</v>
       </c>
       <c r="B188" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -17496,12 +17496,12 @@
         <v>1001764.3802</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2015</v>
       </c>
       <c r="B189" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -17585,12 +17585,12 @@
         <v>465816.28460999997</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2015</v>
       </c>
       <c r="B190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -17674,12 +17674,12 @@
         <v>434595.27340000001</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2015</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -17763,12 +17763,12 @@
         <v>679693.53292999999</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2015</v>
       </c>
       <c r="B192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -17852,12 +17852,12 @@
         <v>506194.55106999999</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2015</v>
       </c>
       <c r="B193" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -17941,12 +17941,12 @@
         <v>393414.95908</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2016</v>
       </c>
       <c r="B194" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -18030,12 +18030,12 @@
         <v>433188.52879999997</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2016</v>
       </c>
       <c r="B195" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -18119,12 +18119,12 @@
         <v>489870.81305</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2016</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -18208,12 +18208,12 @@
         <v>485704.28227000003</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2016</v>
       </c>
       <c r="B197" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -18297,12 +18297,12 @@
         <v>680787.14164000005</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2016</v>
       </c>
       <c r="B198" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -18386,12 +18386,12 @@
         <v>1924914.95924</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2016</v>
       </c>
       <c r="B199" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -18475,12 +18475,12 @@
         <v>2618007.2200699998</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2016</v>
       </c>
       <c r="B200" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -18564,12 +18564,12 @@
         <v>803943.43808999995</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2016</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -18653,12 +18653,12 @@
         <v>432136.89105999999</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2016</v>
       </c>
       <c r="B202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -18742,12 +18742,12 @@
         <v>461067.25897999998</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2016</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -18831,12 +18831,12 @@
         <v>477304.74906</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2016</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -18920,12 +18920,12 @@
         <v>389093.56312000001</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2016</v>
       </c>
       <c r="B205" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -19009,12 +19009,12 @@
         <v>366263.41424000001</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2017</v>
       </c>
       <c r="B206" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -19098,12 +19098,12 @@
         <v>415407.44284999999</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2017</v>
       </c>
       <c r="B207" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -19187,12 +19187,12 @@
         <v>565093.37207000004</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2017</v>
       </c>
       <c r="B208" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -19276,12 +19276,12 @@
         <v>894924.16832000006</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2017</v>
       </c>
       <c r="B209" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -19365,12 +19365,12 @@
         <v>1493675.2702200001</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2017</v>
       </c>
       <c r="B210" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -19454,12 +19454,12 @@
         <v>2320514.9865700002</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2017</v>
       </c>
       <c r="B211" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -19543,12 +19543,12 @@
         <v>2679849.5191299999</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2017</v>
       </c>
       <c r="B212" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -19632,12 +19632,12 @@
         <v>889314.35005999997</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2017</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -19721,12 +19721,12 @@
         <v>495176.18667999998</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2017</v>
       </c>
       <c r="B214" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -19810,12 +19810,12 @@
         <v>409583.81831</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2017</v>
       </c>
       <c r="B215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -19899,12 +19899,12 @@
         <v>533372.49672000005</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2017</v>
       </c>
       <c r="B216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -19988,12 +19988,12 @@
         <v>453932.1054</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2017</v>
       </c>
       <c r="B217" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -20077,12 +20077,12 @@
         <v>483183.34655000002</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2018</v>
       </c>
       <c r="B218" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -20166,12 +20166,12 @@
         <v>442477.99580999999</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2018</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -20255,12 +20255,12 @@
         <v>386695.25595000002</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2018</v>
       </c>
       <c r="B220" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -20344,12 +20344,12 @@
         <v>394988.31533000001</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2018</v>
       </c>
       <c r="B221" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -20433,12 +20433,12 @@
         <v>419466.66616999998</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2018</v>
       </c>
       <c r="B222" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -20522,12 +20522,12 @@
         <v>967962.58582000004</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2018</v>
       </c>
       <c r="B223" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -20611,12 +20611,12 @@
         <v>634986.58255000005</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2018</v>
       </c>
       <c r="B224" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -20700,12 +20700,12 @@
         <v>251860.44540999999</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2018</v>
       </c>
       <c r="B225" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -20789,12 +20789,12 @@
         <v>260107.97240999999</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2018</v>
       </c>
       <c r="B226" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -20878,12 +20878,12 @@
         <v>229554.19954</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2018</v>
       </c>
       <c r="B227" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -20967,12 +20967,12 @@
         <v>476976.89935999998</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2018</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -21056,12 +21056,12 @@
         <v>307063.28830999997</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2018</v>
       </c>
       <c r="B229" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -21145,12 +21145,12 @@
         <v>322151.45306000003</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2019</v>
       </c>
       <c r="B230" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -21234,12 +21234,12 @@
         <v>303097.14390999998</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2019</v>
       </c>
       <c r="B231" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -21323,12 +21323,12 @@
         <v>339204.44939000002</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2019</v>
       </c>
       <c r="B232" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -21412,12 +21412,12 @@
         <v>574073.31697000004</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2019</v>
       </c>
       <c r="B233" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -21501,12 +21501,12 @@
         <v>898825.14089000004</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2019</v>
       </c>
       <c r="B234" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -21590,12 +21590,12 @@
         <v>1979500.13851</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2019</v>
       </c>
       <c r="B235" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -21679,12 +21679,12 @@
         <v>3583128.4322799998</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2019</v>
       </c>
       <c r="B236" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -21768,12 +21768,12 @@
         <v>2014972.66227</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2019</v>
       </c>
       <c r="B237" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -21857,12 +21857,12 @@
         <v>608424.46709000005</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2019</v>
       </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -21946,12 +21946,12 @@
         <v>379161.58124000003</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2019</v>
       </c>
       <c r="B239" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -22035,12 +22035,12 @@
         <v>397321.67722000001</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2019</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -22124,12 +22124,12 @@
         <v>466425.62709999998</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2019</v>
       </c>
       <c r="B241" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -22227,29 +22227,29 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>36526</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>487765.62622999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>36557</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>459586.39301</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>36586</v>
       </c>
@@ -22309,7 +22309,7 @@
         <v>532951.74338999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>36617</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>789596.51122999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>36647</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>1576752.70524</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>36678</v>
       </c>
@@ -22369,7 +22369,7 @@
         <v>1316719.00257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>36708</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>376321.69688</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>36739</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>295827.28064000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>36770</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>339549.33661</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>36800</v>
       </c>
@@ -22449,7 +22449,7 @@
         <v>457446.32176000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>36831</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>366109.51688000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>36861</v>
       </c>
@@ -22489,7 +22489,7 @@
         <v>348831.9571</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>36892</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>327699.25374000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>36923</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>333419.09233999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>36951</v>
       </c>
@@ -22549,7 +22549,7 @@
         <v>500499.81771999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>36982</v>
       </c>
@@ -22569,7 +22569,7 @@
         <v>586443.93769000005</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>37012</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>1698478.45071</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>37043</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>1148352.2027700001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>37073</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>345316.41888000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>37104</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>420335.28642999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>37135</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>322987.92771999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>37165</v>
       </c>
@@ -22689,7 +22689,7 @@
         <v>292157.79395999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>37196</v>
       </c>
@@ -22709,7 +22709,7 @@
         <v>337230.36450000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>37226</v>
       </c>
@@ -22729,7 +22729,7 @@
         <v>280924.00355999998</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>37257</v>
       </c>
@@ -22749,7 +22749,7 @@
         <v>288711.55676000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>37288</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>270268.94108000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>37316</v>
       </c>
@@ -22789,7 +22789,7 @@
         <v>339116.23034000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>37347</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>393167.33588000003</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>37377</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v>445027.37401000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>37408</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>344652.07523999998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>37438</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>122339.21221</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>37469</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>130336.14091</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>37500</v>
       </c>
@@ -22909,7 +22909,7 @@
         <v>429700.44657999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>37530</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>321041.25459000003</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>37561</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>340508.32822000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>37591</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>266496.03402999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37622</v>
       </c>
@@ -22989,7 +22989,7 @@
         <v>247919.05338999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>37653</v>
       </c>
@@ -23009,7 +23009,7 @@
         <v>252534.02973000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>37681</v>
       </c>
@@ -23029,7 +23029,7 @@
         <v>380956.40542999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>37712</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>408694.65464999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>37742</v>
       </c>
@@ -23069,7 +23069,7 @@
         <v>1234076.6754699999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>37773</v>
       </c>
@@ -23089,7 +23089,7 @@
         <v>1545340.7616600001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>37803</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>338984.78266999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>37834</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>266032.34039000003</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>37865</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>470197.94708999997</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>37895</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>334916.27315999998</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>37926</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>356036.16116999998</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>37956</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>292947.57270999998</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>37987</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>253400.09448</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>38018</v>
       </c>
@@ -23249,7 +23249,7 @@
         <v>267148.48608</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>38047</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>432109.89808000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>38078</v>
       </c>
@@ -23289,7 +23289,7 @@
         <v>684838.13988000003</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>38108</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>1022923.73327</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>38139</v>
       </c>
@@ -23329,7 +23329,7 @@
         <v>742864.61496000004</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>38169</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>336946.40954999998</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>38200</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>251196.52033999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>38231</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>404158.37349000003</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>38261</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>495839.37212999997</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>38292</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>462234.20390000002</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>38322</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>375588.31585000001</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>38353</v>
       </c>
@@ -23469,7 +23469,7 @@
         <v>585722.16140999994</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>38384</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>492040.35454999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>38412</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>543484.05122000002</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>38443</v>
       </c>
@@ -23529,7 +23529,7 @@
         <v>1107499.42352</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>38473</v>
       </c>
@@ -23549,7 +23549,7 @@
         <v>2747194.7210599999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>38504</v>
       </c>
@@ -23569,7 +23569,7 @@
         <v>2820941.4991100002</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>38534</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>966025.93669999996</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>38565</v>
       </c>
@@ -23609,7 +23609,7 @@
         <v>496437.99589999998</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>38596</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>453799.82555000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>38626</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>629884.52043000003</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>38657</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>502760.29934000003</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>38687</v>
       </c>
@@ -23689,7 +23689,7 @@
         <v>394003.69332999998</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>38718</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>407557.94274999999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>38749</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>362562.40886999998</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>38777</v>
       </c>
@@ -23749,7 +23749,7 @@
         <v>518845.19575999997</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>38808</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>1044494.39877</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>38838</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>1886061.0458200001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>38869</v>
       </c>
@@ -23809,7 +23809,7 @@
         <v>1393813.5073800001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>38899</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>504253.62734000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>38930</v>
       </c>
@@ -23849,7 +23849,7 @@
         <v>448419.69416000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>38961</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>474752.40946</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>38991</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>1297608.28489</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>39022</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>516280.26668</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>39052</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>459883.14720000001</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>39083</v>
       </c>
@@ -23949,7 +23949,7 @@
         <v>405205.31312000001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>39114</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>449026.0441</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>39142</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>708005.28241999994</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>39173</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>781419.47592</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>39203</v>
       </c>
@@ -24029,7 +24029,7 @@
         <v>1609414.3290299999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>39234</v>
       </c>
@@ -24049,7 +24049,7 @@
         <v>1052665.8359600001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>39264</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>407791.18638999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>39295</v>
       </c>
@@ -24089,7 +24089,7 @@
         <v>455981.24284999998</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <v>39326</v>
       </c>
@@ -24109,7 +24109,7 @@
         <v>472408.07556000003</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>39356</v>
       </c>
@@ -24129,7 +24129,7 @@
         <v>503731.39066999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <v>39387</v>
       </c>
@@ -24149,7 +24149,7 @@
         <v>429667.71980999998</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <v>39417</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>423108.71085999999</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <v>39448</v>
       </c>
@@ -24189,7 +24189,7 @@
         <v>413339.80949000001</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <v>39479</v>
       </c>
@@ -24209,7 +24209,7 @@
         <v>610108.02824999997</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>39508</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>756386.32334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>39539</v>
       </c>
@@ -24249,7 +24249,7 @@
         <v>1126659.034</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <v>39569</v>
       </c>
@@ -24269,7 +24269,7 @@
         <v>2563872.7392000002</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <v>39600</v>
       </c>
@@ -24289,7 +24289,7 @@
         <v>3171835.16261</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <v>39630</v>
       </c>
@@ -24309,7 +24309,7 @@
         <v>1166793.12996</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <v>39661</v>
       </c>
@@ -24329,7 +24329,7 @@
         <v>531615.47949000006</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <v>39692</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>462090.37070999999</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <v>39722</v>
       </c>
@@ -24369,7 +24369,7 @@
         <v>423724.08519000001</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
         <v>39753</v>
       </c>
@@ -24389,7 +24389,7 @@
         <v>415954.70662000001</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>39783</v>
       </c>
@@ -24409,7 +24409,7 @@
         <v>370376.32227</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
         <v>39814</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>393885.09577999997</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <v>39845</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>376860.17939</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>39873</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>464236.39799000003</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <v>39904</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>719176.87803000002</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <v>39934</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v>2658254.2743099998</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
         <v>39965</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>2132398.5375999999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <v>39995</v>
       </c>
@@ -24549,7 +24549,7 @@
         <v>952935.95828000002</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <v>40026</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v>405220.22720999998</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <v>40057</v>
       </c>
@@ -24589,7 +24589,7 @@
         <v>390725.36683000001</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <v>40087</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>431399.61086000002</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <v>40118</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>434072.38868999999</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <v>40148</v>
       </c>
@@ -24649,7 +24649,7 @@
         <v>345430.77432000003</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <v>40179</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>431776.95043000003</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <v>40210</v>
       </c>
@@ -24689,7 +24689,7 @@
         <v>412306.63517000002</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <v>40238</v>
       </c>
@@ -24709,7 +24709,7 @@
         <v>533196.76728999999</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <v>40269</v>
       </c>
@@ -24729,7 +24729,7 @@
         <v>752736.37083000003</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
         <v>40299</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>1269152.4315599999</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <v>40330</v>
       </c>
@@ -24769,7 +24769,7 @@
         <v>2229577.4952400001</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <v>40360</v>
       </c>
@@ -24789,7 +24789,7 @@
         <v>577811.75434999994</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
         <v>40391</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>620380.99985000002</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
         <v>40422</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>428576.35187999997</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="15">
         <v>40452</v>
       </c>
@@ -24849,7 +24849,7 @@
         <v>587954.65404000005</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
         <v>40483</v>
       </c>
@@ -24869,7 +24869,7 @@
         <v>387046.46432000003</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="15">
         <v>40513</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>424626.56829000002</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
         <v>40544</v>
       </c>
@@ -24909,7 +24909,7 @@
         <v>307238.61189</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <v>40575</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>340142.85970999999</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <v>40603</v>
       </c>
@@ -24949,7 +24949,7 @@
         <v>583427.12184000004</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
         <v>40634</v>
       </c>
@@ -24969,7 +24969,7 @@
         <v>1095998.77263</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
         <v>40664</v>
       </c>
@@ -24989,7 +24989,7 @@
         <v>2467465.7591599999</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="15">
         <v>40695</v>
       </c>
@@ -25009,7 +25009,7 @@
         <v>4661403.8241499998</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
         <v>40725</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>3194774.78388</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <v>40756</v>
       </c>
@@ -25049,7 +25049,7 @@
         <v>779509.37615000003</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <v>40787</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>668516.71680000005</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <v>40817</v>
       </c>
@@ -25089,7 +25089,7 @@
         <v>630107.21719</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <v>40848</v>
       </c>
@@ -25109,7 +25109,7 @@
         <v>530054.66377999994</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <v>40878</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>490493.18618000002</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
         <v>40909</v>
       </c>
@@ -25149,7 +25149,7 @@
         <v>503095.88055</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="15">
         <v>40940</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>459879.63848000002</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="15">
         <v>40969</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>624751.97967999999</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <v>41000</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>689342.18226999999</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <v>41030</v>
       </c>
@@ -25229,7 +25229,7 @@
         <v>769658.01699000003</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <v>41061</v>
       </c>
@@ -25249,7 +25249,7 @@
         <v>397529.58899999998</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
         <v>41091</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>284532.36988000001</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <v>41122</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>288585.71891</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
         <v>41153</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>295690.11705</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
         <v>41183</v>
       </c>
@@ -25329,7 +25329,7 @@
         <v>294062.3786</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <v>41214</v>
       </c>
@@ -25349,7 +25349,7 @@
         <v>272956.04846000002</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="15">
         <v>41244</v>
       </c>
@@ -25369,7 +25369,7 @@
         <v>247083.98233</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <v>41275</v>
       </c>
@@ -25389,7 +25389,7 @@
         <v>230462.63362000001</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
         <v>41306</v>
       </c>
@@ -25409,7 +25409,7 @@
         <v>299549.33704999997</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
         <v>41334</v>
       </c>
@@ -25429,7 +25429,7 @@
         <v>356662.66488</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
         <v>41365</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>325894.90198999998</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="15">
         <v>41395</v>
       </c>
@@ -25469,7 +25469,7 @@
         <v>924567.49545000005</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <v>41426</v>
       </c>
@@ -25489,7 +25489,7 @@
         <v>906543.22829999996</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="15">
         <v>41456</v>
       </c>
@@ -25509,7 +25509,7 @@
         <v>297719.82405</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="15">
         <v>41487</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>400897.64656000002</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
         <v>41518</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>801787.26758999994</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="15">
         <v>41548</v>
       </c>
@@ -25569,7 +25569,7 @@
         <v>475048.33250000002</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="15">
         <v>41579</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>434762.72771000001</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="15">
         <v>41609</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>291185.16843000002</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
         <v>41640</v>
       </c>
@@ -25629,7 +25629,7 @@
         <v>271315.01697</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
         <v>41671</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>320719.40750999999</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <v>41699</v>
       </c>
@@ -25669,7 +25669,7 @@
         <v>444310.40324999997</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <v>41730</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>774059.78934000002</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
         <v>41760</v>
       </c>
@@ -25709,7 +25709,7 @@
         <v>1632006.8809199999</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="15">
         <v>41791</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>2675873.73404</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
         <v>41821</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>730454.02286000003</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
         <v>41852</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>615161.73688999994</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
         <v>41883</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>621640.29151999997</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
         <v>41913</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>635761.09256999998</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <v>41944</v>
       </c>
@@ -25829,7 +25829,7 @@
         <v>419693.08267999999</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <v>41974</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>465223.22602</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
         <v>42005</v>
       </c>
@@ -25869,7 +25869,7 @@
         <v>448502.52007999999</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="15">
         <v>42036</v>
       </c>
@@ -25889,7 +25889,7 @@
         <v>464120.49787000002</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
         <v>42064</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>543432.27494999999</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="15">
         <v>42095</v>
       </c>
@@ -25929,7 +25929,7 @@
         <v>539283.27774000005</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
         <v>42125</v>
       </c>
@@ -25949,7 +25949,7 @@
         <v>1431243.7907700001</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
         <v>42156</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>2569954.8813</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="15">
         <v>42186</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>1001764.3802</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <v>42217</v>
       </c>
@@ -26009,7 +26009,7 @@
         <v>465816.28460999997</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
         <v>42248</v>
       </c>
@@ -26029,7 +26029,7 @@
         <v>434595.27340000001</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <v>42278</v>
       </c>
@@ -26049,7 +26049,7 @@
         <v>679693.53292999999</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="15">
         <v>42309</v>
       </c>
@@ -26069,7 +26069,7 @@
         <v>506194.55106999999</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
         <v>42339</v>
       </c>
@@ -26089,7 +26089,7 @@
         <v>393414.95908</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="15">
         <v>42370</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>433188.52879999997</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="15">
         <v>42401</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>489870.81305</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
         <v>42430</v>
       </c>
@@ -26149,7 +26149,7 @@
         <v>485704.28227000003</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
         <v>42461</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>680787.14164000005</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
         <v>42491</v>
       </c>
@@ -26189,7 +26189,7 @@
         <v>1924914.95924</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="15">
         <v>42522</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>2618007.2200699998</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <v>42552</v>
       </c>
@@ -26229,7 +26229,7 @@
         <v>803943.43808999995</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <v>42583</v>
       </c>
@@ -26249,7 +26249,7 @@
         <v>432136.89105999999</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <v>42614</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>461067.25897999998</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="15">
         <v>42644</v>
       </c>
@@ -26289,7 +26289,7 @@
         <v>477304.74906</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="15">
         <v>42675</v>
       </c>
@@ -26309,7 +26309,7 @@
         <v>389093.56312000001</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="15">
         <v>42705</v>
       </c>
@@ -26329,7 +26329,7 @@
         <v>366263.41424000001</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
         <v>42736</v>
       </c>
@@ -26349,7 +26349,7 @@
         <v>415407.44284999999</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
         <v>42767</v>
       </c>
@@ -26369,7 +26369,7 @@
         <v>565093.37207000004</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="15">
         <v>42795</v>
       </c>
@@ -26389,7 +26389,7 @@
         <v>894924.16832000006</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="15">
         <v>42826</v>
       </c>
@@ -26409,7 +26409,7 @@
         <v>1493675.2702200001</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
         <v>42856</v>
       </c>
@@ -26429,7 +26429,7 @@
         <v>2320514.9865700002</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="15">
         <v>42887</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>2679849.5191299999</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="15">
         <v>42917</v>
       </c>
@@ -26469,7 +26469,7 @@
         <v>889314.35005999997</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="15">
         <v>42948</v>
       </c>
@@ -26489,7 +26489,7 @@
         <v>495176.18667999998</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="15">
         <v>42979</v>
       </c>
@@ -26509,7 +26509,7 @@
         <v>409583.81831</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="15">
         <v>43009</v>
       </c>
@@ -26529,7 +26529,7 @@
         <v>533372.49672000005</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="15">
         <v>43040</v>
       </c>
@@ -26549,7 +26549,7 @@
         <v>453932.1054</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="15">
         <v>43070</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>483183.34655000002</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="15">
         <v>43101</v>
       </c>
@@ -26589,7 +26589,7 @@
         <v>442477.99580999999</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
         <v>43132</v>
       </c>
@@ -26609,7 +26609,7 @@
         <v>386695.25595000002</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="15">
         <v>43160</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>394988.31533000001</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="15">
         <v>43191</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>419466.66616999998</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="15">
         <v>43221</v>
       </c>
@@ -26669,7 +26669,7 @@
         <v>967962.58582000004</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="15">
         <v>43252</v>
       </c>
@@ -26689,7 +26689,7 @@
         <v>634986.58255000005</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="15">
         <v>43282</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>251860.44540999999</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="15">
         <v>43313</v>
       </c>
@@ -26729,7 +26729,7 @@
         <v>260107.97240999999</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
         <v>43344</v>
       </c>
@@ -26749,7 +26749,7 @@
         <v>229554.19954</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="15">
         <v>43374</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>476976.89935999998</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
         <v>43405</v>
       </c>
@@ -26789,7 +26789,7 @@
         <v>307063.28830999997</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="15">
         <v>43435</v>
       </c>
@@ -26809,7 +26809,7 @@
         <v>322151.45306000003</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="15">
         <v>43466</v>
       </c>
@@ -26829,7 +26829,7 @@
         <v>303097.14390999998</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="15">
         <v>43497</v>
       </c>
@@ -26849,7 +26849,7 @@
         <v>339204.44939000002</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
         <v>43525</v>
       </c>
@@ -26869,7 +26869,7 @@
         <v>574073.31697000004</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="15">
         <v>43556</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>898825.14089000004</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
         <v>43586</v>
       </c>
@@ -26909,7 +26909,7 @@
         <v>1979500.13851</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
         <v>43617</v>
       </c>
@@ -26929,7 +26929,7 @@
         <v>3583128.4322799998</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
         <v>43647</v>
       </c>
@@ -26949,7 +26949,7 @@
         <v>2014972.66227</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="15">
         <v>43678</v>
       </c>
@@ -26969,7 +26969,7 @@
         <v>608424.46709000005</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="15">
         <v>43709</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>379161.58124000003</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="15">
         <v>43739</v>
       </c>
@@ -27009,7 +27009,7 @@
         <v>397321.67722000001</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="15">
         <v>43770</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>466425.62709999998</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="15">
         <v>43800</v>
       </c>
@@ -27062,145 +27062,145 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="10"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="8.88671875" style="10"/>
+    <col min="9" max="9" width="8.85546875" style="10"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="18" max="18" width="8.85546875" style="10"/>
     <col min="20" max="20" width="10" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>36556</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5">
         <v>62675.7</v>
@@ -27260,12 +27260,12 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>36585</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5">
         <v>59704.46</v>
@@ -27325,12 +27325,12 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>36616</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5">
         <v>65153.06</v>
@@ -27390,12 +27390,12 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>36646</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5">
         <v>98681.65</v>
@@ -27455,12 +27455,12 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>36677</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5">
         <v>291451.24</v>
@@ -27520,12 +27520,12 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>36707</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5">
         <v>234823.14</v>
@@ -27585,12 +27585,12 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>36738</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5">
         <v>117151.74</v>
@@ -27650,12 +27650,12 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>36769</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5">
         <v>111808.26</v>
@@ -27715,12 +27715,12 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>36799</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5">
         <v>90934.21</v>
@@ -27780,12 +27780,12 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>36830</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5">
         <v>79676.03</v>
@@ -27845,12 +27845,12 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>36860</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
         <v>55350.74</v>
@@ -27910,12 +27910,12 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>36891</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5">
         <v>51014.879999999997</v>
@@ -27975,12 +27975,12 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>36922</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5">
         <v>49392.4</v>
@@ -28040,12 +28040,12 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>36950</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="5">
         <v>48977.85</v>
@@ -28105,12 +28105,12 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>36981</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5">
         <v>58137.52</v>
@@ -28170,12 +28170,12 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>37011</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5">
         <v>83270.080000000002</v>
@@ -28235,12 +28235,12 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>37042</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5">
         <v>203026.12</v>
@@ -28300,12 +28300,12 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>37072</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5">
         <v>152647.93</v>
@@ -28365,12 +28365,12 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>37103</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5">
         <v>87104.13</v>
@@ -28430,12 +28430,12 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>37134</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5">
         <v>91168.26</v>
@@ -28495,12 +28495,12 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>37164</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5">
         <v>90549.42</v>
@@ -28560,12 +28560,12 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>37195</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5">
         <v>69288.600000000006</v>
@@ -28625,12 +28625,12 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>37225</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="5">
         <v>47472.4</v>
@@ -28690,12 +28690,12 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>37256</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5">
         <v>36716.03</v>
@@ -28755,12 +28755,12 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>37287</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5">
         <v>43324.959999999999</v>
@@ -28820,12 +28820,12 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>37315</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5">
         <v>36928.26</v>
@@ -28885,12 +28885,12 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>37346</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5">
         <v>46244.63</v>
@@ -28950,12 +28950,12 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>37376</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="5">
         <v>77117.36</v>
@@ -29015,12 +29015,12 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>37407</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="5">
         <v>87732.89</v>
@@ -29080,12 +29080,12 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>37437</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="5">
         <v>75242.98</v>
@@ -29145,12 +29145,12 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>37468</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5">
         <v>67400.33</v>
@@ -29210,12 +29210,12 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>37499</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="5">
         <v>62084.63</v>
@@ -29275,12 +29275,12 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>37529</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="5">
         <v>46974.55</v>
@@ -29340,12 +29340,12 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>37560</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5">
         <v>49727.6</v>
@@ -29405,12 +29405,12 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>37590</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="5">
         <v>51340.17</v>
@@ -29470,12 +29470,12 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37621</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5">
         <v>38608.26</v>
@@ -29535,12 +29535,12 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37652</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5">
         <v>38134.21</v>
@@ -29600,12 +29600,12 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>37680</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5">
         <v>37436.03</v>
@@ -29665,12 +29665,12 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>37711</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="5">
         <v>50806.61</v>
@@ -29730,12 +29730,12 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>37741</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="5">
         <v>63034.71</v>
@@ -29795,12 +29795,12 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>37772</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5">
         <v>226992.4</v>
@@ -29860,12 +29860,12 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>37802</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="5">
         <v>251107.44</v>
@@ -29925,12 +29925,12 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>37833</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="5">
         <v>90105.12</v>
@@ -29990,12 +29990,12 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>37864</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="5">
         <v>84245.95</v>
@@ -30055,12 +30055,12 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>37894</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="5">
         <v>83809.59</v>
@@ -30120,12 +30120,12 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>37925</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="5">
         <v>94962.64</v>
@@ -30185,12 +30185,12 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>37955</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5">
         <v>52778.18</v>
@@ -30250,12 +30250,12 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>37986</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="5">
         <v>48448.26</v>
@@ -30315,12 +30315,12 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>38017</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="5">
         <v>44628.1</v>
@@ -30380,12 +30380,12 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>38046</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="5">
         <v>43128.6</v>
@@ -30445,12 +30445,12 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>38077</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="5">
         <v>57385.79</v>
@@ -30510,12 +30510,12 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>38107</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="5">
         <v>65545.789999999994</v>
@@ -30575,12 +30575,12 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>38138</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="5">
         <v>142928.93</v>
@@ -30640,12 +30640,12 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>38168</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" s="5">
         <v>119702.48</v>
@@ -30705,12 +30705,12 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>38199</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="5">
         <v>78795.37</v>
@@ -30770,12 +30770,12 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>38230</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="5">
         <v>80743.14</v>
@@ -30835,12 +30835,12 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>38260</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="5">
         <v>75346.12</v>
@@ -30900,12 +30900,12 @@
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>38291</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="5">
         <v>78904.460000000006</v>
@@ -30965,12 +30965,12 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>38321</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C61" s="5">
         <v>64544.13</v>
@@ -31030,12 +31030,12 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>38352</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C62" s="5">
         <v>49912.07</v>
@@ -31095,12 +31095,12 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>38383</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63" s="5">
         <v>51717.02</v>
@@ -31160,12 +31160,12 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>38411</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64" s="5">
         <v>39582.15</v>
@@ -31225,12 +31225,12 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>38442</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C65" s="5">
         <v>47936.53</v>
@@ -31290,12 +31290,12 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>38472</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C66" s="5">
         <v>87399.67</v>
@@ -31355,12 +31355,12 @@
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>38503</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67" s="5">
         <v>209341.49</v>
@@ -31420,12 +31420,12 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>38533</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C68" s="5">
         <v>266856.2</v>
@@ -31485,12 +31485,12 @@
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>38564</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C69" s="5">
         <v>158796.69</v>
@@ -31550,12 +31550,12 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>38595</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C70" s="5">
         <v>91644.3</v>
@@ -31615,12 +31615,12 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>38625</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C71" s="5">
         <v>86372.23</v>
@@ -31680,12 +31680,12 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>38656</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C72" s="5">
         <v>79438.02</v>
@@ -31745,12 +31745,12 @@
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>38686</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73" s="5">
         <v>70956.69</v>
@@ -31810,12 +31810,12 @@
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>38717</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C74" s="5">
         <v>64506.45</v>
@@ -31875,12 +31875,12 @@
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>38748</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C75" s="5">
         <v>58387.44</v>
@@ -31940,12 +31940,12 @@
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>38776</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C76" s="5">
         <v>52915.040000000001</v>
@@ -32005,12 +32005,12 @@
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>38807</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C77" s="5">
         <v>73138.509999999995</v>
@@ -32070,12 +32070,12 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>38837</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C78" s="5">
         <v>149617.19</v>
@@ -32135,12 +32135,12 @@
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>38868</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C79" s="5">
         <v>309976.86</v>
@@ -32200,12 +32200,12 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>38898</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C80" s="5">
         <v>223517.36</v>
@@ -32265,12 +32265,12 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>38929</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C81" s="5">
         <v>128897.85</v>
@@ -32330,12 +32330,12 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>38960</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C82" s="5">
         <v>102476.03</v>
@@ -32395,12 +32395,12 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>38990</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C83" s="5">
         <v>97580.83</v>
@@ -32460,12 +32460,12 @@
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>39021</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C84" s="5">
         <v>84930.25</v>
@@ -32525,12 +32525,12 @@
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>39051</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C85" s="5">
         <v>71006.28</v>
@@ -32590,12 +32590,12 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>39082</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C86" s="5">
         <v>61921.98</v>
@@ -32655,12 +32655,12 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>39113</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C87" s="5">
         <v>51153.72</v>
@@ -32720,12 +32720,12 @@
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>39141</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C88" s="5">
         <v>56544.79</v>
@@ -32785,12 +32785,12 @@
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>39172</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C89" s="5">
         <v>86483.31</v>
@@ -32850,12 +32850,12 @@
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>39202</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C90" s="5">
         <v>103874.38</v>
@@ -32915,12 +32915,12 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>39233</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C91" s="5">
         <v>254796.69</v>
@@ -32980,12 +32980,12 @@
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>39263</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C92" s="5">
         <v>250175.21</v>
@@ -33045,12 +33045,12 @@
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>39294</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C93" s="5">
         <v>120583.14</v>
@@ -33110,12 +33110,12 @@
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>39325</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C94" s="5">
         <v>88891.24</v>
@@ -33175,12 +33175,12 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>39355</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C95" s="5">
         <v>92102.48</v>
@@ -33240,12 +33240,12 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>39386</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C96" s="5">
         <v>88365.62</v>
@@ -33305,12 +33305,12 @@
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>39416</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C97" s="5">
         <v>61168.26</v>
@@ -33370,12 +33370,12 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>39447</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C98" s="5">
         <v>55896.2</v>
@@ -33435,12 +33435,12 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>39478</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C99" s="5">
         <v>48426.45</v>
@@ -33500,12 +33500,12 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>39507</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C100" s="5">
         <v>52649.26</v>
@@ -33565,12 +33565,12 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>39538</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C101" s="5">
         <v>67511.399999999994</v>
@@ -33630,12 +33630,12 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>39568</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C102" s="5">
         <v>107710.41</v>
@@ -33695,12 +33695,12 @@
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>39599</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C103" s="5">
         <v>376819.83</v>
@@ -33760,12 +33760,12 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>39629</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C104" s="5">
         <v>508522.31</v>
@@ -33825,12 +33825,12 @@
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>39660</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C105" s="5">
         <v>253071.07</v>
@@ -33890,12 +33890,12 @@
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>39691</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C106" s="5">
         <v>119452.56</v>
@@ -33955,12 +33955,12 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>39721</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C107" s="5">
         <v>118004.63</v>
@@ -34020,12 +34020,12 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>39752</v>
       </c>
       <c r="B108" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C108" s="5">
         <v>102535.54</v>
@@ -34085,12 +34085,12 @@
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>39782</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C109" s="5">
         <v>62850.25</v>
@@ -34150,12 +34150,12 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>39813</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C110" s="5">
         <v>57389.75</v>
@@ -34215,12 +34215,12 @@
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>39844</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C111" s="5">
         <v>56881.98</v>
@@ -34280,12 +34280,12 @@
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>39872</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C112" s="5">
         <v>51175.54</v>
@@ -34345,12 +34345,12 @@
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>39903</v>
       </c>
       <c r="B113" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C113" s="5">
         <v>57484.959999999999</v>
@@ -34410,12 +34410,12 @@
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>39933</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C114" s="5">
         <v>107970.25</v>
@@ -34475,12 +34475,12 @@
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>39964</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C115" s="5">
         <v>454234.71</v>
@@ -34540,12 +34540,12 @@
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>39994</v>
       </c>
       <c r="B116" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C116" s="5">
         <v>491325.62</v>
@@ -34605,12 +34605,12 @@
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>40025</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C117" s="5">
         <v>234049.59</v>
@@ -34670,12 +34670,12 @@
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>40056</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C118" s="5">
         <v>111953.06</v>
@@ -34735,12 +34735,12 @@
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>40086</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C119" s="5">
         <v>89424.79</v>
@@ -34800,12 +34800,12 @@
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>40117</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C120" s="5">
         <v>89174.88</v>
@@ -34865,12 +34865,12 @@
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>40147</v>
       </c>
       <c r="B121" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C121" s="5">
         <v>52266.45</v>
@@ -34930,12 +34930,12 @@
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>40178</v>
       </c>
       <c r="B122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C122" s="5">
         <v>46173.22</v>
@@ -34995,12 +34995,12 @@
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>40209</v>
       </c>
       <c r="B123" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C123" s="5">
         <v>53313.72</v>
@@ -35060,12 +35060,12 @@
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>40237</v>
       </c>
       <c r="B124" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C124" s="5">
         <v>48706.12</v>
@@ -35125,12 +35125,12 @@
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>40268</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C125" s="5">
         <v>54817.19</v>
@@ -35190,12 +35190,12 @@
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>40298</v>
       </c>
       <c r="B126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C126" s="5">
         <v>92568.6</v>
@@ -35255,12 +35255,12 @@
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>40329</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C127" s="5">
         <v>223860.5</v>
@@ -35320,12 +35320,12 @@
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>40359</v>
       </c>
       <c r="B128" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C128" s="5">
         <v>481685.95</v>
@@ -35385,12 +35385,12 @@
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>40390</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C129" s="5">
         <v>150150.74</v>
@@ -35450,12 +35450,12 @@
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>40421</v>
       </c>
       <c r="B130" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C130" s="5">
         <v>122165.95</v>
@@ -35515,12 +35515,12 @@
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>40451</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C131" s="5">
         <v>103380.5</v>
@@ -35580,12 +35580,12 @@
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>40482</v>
       </c>
       <c r="B132" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C132" s="5">
         <v>97092.89</v>
@@ -35645,12 +35645,12 @@
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>40512</v>
       </c>
       <c r="B133" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C133" s="5">
         <v>63104.13</v>
@@ -35710,12 +35710,12 @@
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>40543</v>
       </c>
       <c r="B134" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C134" s="5">
         <v>60585.120000000003</v>
@@ -35775,12 +35775,12 @@
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>40574</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C135" s="5">
         <v>52907.11</v>
@@ -35840,12 +35840,12 @@
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>40602</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C136" s="5">
         <v>48755.7</v>
@@ -35905,12 +35905,12 @@
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>40633</v>
       </c>
       <c r="B137" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C137" s="5">
         <v>75177.52</v>
@@ -35970,12 +35970,12 @@
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>40663</v>
       </c>
       <c r="B138" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C138" s="5">
         <v>161656.85999999999</v>
@@ -36035,12 +36035,12 @@
       <c r="V138" s="3"/>
       <c r="W138" s="3"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>40694</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C139" s="5">
         <v>442464.79</v>
@@ -36100,12 +36100,12 @@
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>40724</v>
       </c>
       <c r="B140" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C140" s="5">
         <v>940899.17</v>
@@ -36165,12 +36165,12 @@
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>40755</v>
       </c>
       <c r="B141" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C141" s="5">
         <v>678148.76</v>
@@ -36230,12 +36230,12 @@
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>40786</v>
       </c>
       <c r="B142" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C142" s="5">
         <v>194802.64</v>
@@ -36295,12 +36295,12 @@
       <c r="V142" s="3"/>
       <c r="W142" s="3"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>40816</v>
       </c>
       <c r="B143" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C143" s="5">
         <v>125668.76</v>
@@ -36360,12 +36360,12 @@
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>40847</v>
       </c>
       <c r="B144" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C144" s="5">
         <v>120021.82</v>
@@ -36425,12 +36425,12 @@
       <c r="V144" s="3"/>
       <c r="W144" s="3"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>40877</v>
       </c>
       <c r="B145" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C145" s="5">
         <v>76861.490000000005</v>
@@ -36490,12 +36490,12 @@
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>40908</v>
       </c>
       <c r="B146" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C146" s="5">
         <v>63118.02</v>
@@ -36555,12 +36555,12 @@
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>40939</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C147" s="5">
         <v>61705.79</v>
@@ -36620,12 +36620,12 @@
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>40968</v>
       </c>
       <c r="B148" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C148" s="5">
         <v>53623.14</v>
@@ -36685,12 +36685,12 @@
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>40999</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C149" s="5">
         <v>72723.97</v>
@@ -36750,12 +36750,12 @@
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>41029</v>
       </c>
       <c r="B150" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C150" s="5">
         <v>84795.37</v>
@@ -36815,12 +36815,12 @@
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>41060</v>
       </c>
       <c r="B151" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C151" s="5">
         <v>115112.73</v>
@@ -36880,12 +36880,12 @@
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>41090</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C152" s="5">
         <v>84960</v>
@@ -36945,12 +36945,12 @@
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>41121</v>
       </c>
       <c r="B153" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C153" s="5">
         <v>95069.75</v>
@@ -37010,12 +37010,12 @@
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>41152</v>
       </c>
       <c r="B154" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C154" s="5">
         <v>92846.28</v>
@@ -37075,12 +37075,12 @@
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>41182</v>
       </c>
       <c r="B155" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C155" s="5">
         <v>72253.88</v>
@@ -37140,12 +37140,12 @@
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>41213</v>
       </c>
       <c r="B156" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C156" s="5">
         <v>66053.55</v>
@@ -37205,12 +37205,12 @@
       <c r="V156" s="3"/>
       <c r="W156" s="3"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>41243</v>
       </c>
       <c r="B157" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C157" s="5">
         <v>49200</v>
@@ -37270,12 +37270,12 @@
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>41274</v>
       </c>
       <c r="B158" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C158" s="5">
         <v>43741.49</v>
@@ -37335,12 +37335,12 @@
       <c r="V158" s="3"/>
       <c r="W158" s="3"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>41305</v>
       </c>
       <c r="B159" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C159" s="5">
         <v>45649.59</v>
@@ -37400,12 +37400,12 @@
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>41333</v>
       </c>
       <c r="B160" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C160" s="5">
         <v>41988.1</v>
@@ -37465,12 +37465,12 @@
       <c r="V160" s="3"/>
       <c r="W160" s="3"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>41364</v>
       </c>
       <c r="B161" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C161" s="5">
         <v>48971.9</v>
@@ -37530,12 +37530,12 @@
       <c r="V161" s="3"/>
       <c r="W161" s="3"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>41394</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C162" s="5">
         <v>59278.02</v>
@@ -37595,12 +37595,12 @@
       <c r="V162" s="3"/>
       <c r="W162" s="3"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>41425</v>
       </c>
       <c r="B163" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C163" s="5">
         <v>226123.64</v>
@@ -37660,12 +37660,12 @@
       <c r="V163" s="3"/>
       <c r="W163" s="3"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>41455</v>
       </c>
       <c r="B164" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C164" s="5">
         <v>205388.43</v>
@@ -37725,12 +37725,12 @@
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>41486</v>
       </c>
       <c r="B165" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C165" s="5">
         <v>93328.26</v>
@@ -37790,12 +37790,12 @@
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>41517</v>
       </c>
       <c r="B166" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C166" s="5">
         <v>101155.04</v>
@@ -37855,12 +37855,12 @@
       <c r="V166" s="3"/>
       <c r="W166" s="3"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>41547</v>
       </c>
       <c r="B167" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C167" s="5">
         <v>91933.88</v>
@@ -37920,12 +37920,12 @@
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>41578</v>
       </c>
       <c r="B168" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C168" s="5">
         <v>81970.91</v>
@@ -37985,12 +37985,12 @@
       <c r="V168" s="3"/>
       <c r="W168" s="3"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>41608</v>
       </c>
       <c r="B169" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C169" s="5">
         <v>64389.42</v>
@@ -38050,12 +38050,12 @@
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>41639</v>
       </c>
       <c r="B170" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C170" s="5">
         <v>48839.01</v>
@@ -38115,12 +38115,12 @@
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>41670</v>
       </c>
       <c r="B171" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C171" s="5">
         <v>58119.67</v>
@@ -38180,12 +38180,12 @@
       <c r="V171" s="3"/>
       <c r="W171" s="3"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>41698</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C172" s="5">
         <v>61221.82</v>
@@ -38245,12 +38245,12 @@
       <c r="V172" s="3"/>
       <c r="W172" s="3"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>41729</v>
       </c>
       <c r="B173" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C173" s="5">
         <v>87740.83</v>
@@ -38310,12 +38310,12 @@
       <c r="V173" s="3"/>
       <c r="W173" s="3"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>41759</v>
       </c>
       <c r="B174" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C174" s="5">
         <v>211326.94</v>
@@ -38375,12 +38375,12 @@
       <c r="V174" s="3"/>
       <c r="W174" s="3"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>41790</v>
       </c>
       <c r="B175" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C175" s="5">
         <v>527920.66</v>
@@ -38440,12 +38440,12 @@
       <c r="V175" s="3"/>
       <c r="W175" s="3"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>41820</v>
       </c>
       <c r="B176" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C176" s="5">
         <v>608905.79</v>
@@ -38505,12 +38505,12 @@
       <c r="V176" s="3"/>
       <c r="W176" s="3"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>41851</v>
       </c>
       <c r="B177" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C177" s="5">
         <v>241130.58</v>
@@ -38570,12 +38570,12 @@
       <c r="V177" s="3"/>
       <c r="W177" s="3"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>41882</v>
       </c>
       <c r="B178" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C178" s="5">
         <v>123665.45</v>
@@ -38635,12 +38635,12 @@
       <c r="V178" s="3"/>
       <c r="W178" s="3"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>41912</v>
       </c>
       <c r="B179" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C179" s="5">
         <v>112367.6</v>
@@ -38700,12 +38700,12 @@
       <c r="V179" s="3"/>
       <c r="W179" s="3"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>41943</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C180" s="5">
         <v>118143.47</v>
@@ -38765,12 +38765,12 @@
       <c r="V180" s="3"/>
       <c r="W180" s="3"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>41973</v>
       </c>
       <c r="B181" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C181" s="5">
         <v>78013.88</v>
@@ -38830,12 +38830,12 @@
       <c r="V181" s="3"/>
       <c r="W181" s="3"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>42004</v>
       </c>
       <c r="B182" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C182" s="5">
         <v>60706.12</v>
@@ -38895,12 +38895,12 @@
       <c r="V182" s="3"/>
       <c r="W182" s="3"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>42035</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C183" s="5">
         <v>63149.75</v>
@@ -38960,12 +38960,12 @@
       <c r="V183" s="3"/>
       <c r="W183" s="3"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>42063</v>
       </c>
       <c r="B184" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C184" s="5">
         <v>62021.16</v>
@@ -39025,12 +39025,12 @@
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>42094</v>
       </c>
       <c r="B185" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C185" s="5">
         <v>83377.19</v>
@@ -39090,12 +39090,12 @@
       <c r="V185" s="3"/>
       <c r="W185" s="3"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>42124</v>
       </c>
       <c r="B186" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C186" s="5">
         <v>112415.21</v>
@@ -39155,12 +39155,12 @@
       <c r="V186" s="3"/>
       <c r="W186" s="3"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>42155</v>
       </c>
       <c r="B187" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C187" s="5">
         <v>303060.5</v>
@@ -39220,12 +39220,12 @@
       <c r="V187" s="3"/>
       <c r="W187" s="3"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>42185</v>
       </c>
       <c r="B188" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C188" s="5">
         <v>623504.13</v>
@@ -39285,12 +39285,12 @@
       <c r="V188" s="3"/>
       <c r="W188" s="3"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>42216</v>
       </c>
       <c r="B189" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C189" s="5">
         <v>237401.65</v>
@@ -39350,12 +39350,12 @@
       <c r="V189" s="3"/>
       <c r="W189" s="3"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>42247</v>
       </c>
       <c r="B190" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C190" s="5">
         <v>103618.51</v>
@@ -39415,12 +39415,12 @@
       <c r="V190" s="3"/>
       <c r="W190" s="3"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>42277</v>
       </c>
       <c r="B191" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C191" s="5">
         <v>94236.69</v>
@@ -39480,12 +39480,12 @@
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>42308</v>
       </c>
       <c r="B192" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C192" s="5">
         <v>91529.26</v>
@@ -39545,12 +39545,12 @@
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>42338</v>
       </c>
       <c r="B193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C193" s="5">
         <v>63570.25</v>
@@ -39610,12 +39610,12 @@
       <c r="V193" s="3"/>
       <c r="W193" s="3"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>42369</v>
       </c>
       <c r="B194" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C194" s="5">
         <v>54825.120000000003</v>
@@ -39675,12 +39675,12 @@
       <c r="V194" s="3"/>
       <c r="W194" s="3"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>42400</v>
       </c>
       <c r="B195" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C195" s="5">
         <v>53734.21</v>
@@ -39740,12 +39740,12 @@
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>42429</v>
       </c>
       <c r="B196" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C196" s="5">
         <v>53097.52</v>
@@ -39805,12 +39805,12 @@
       <c r="V196" s="3"/>
       <c r="W196" s="3"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>42460</v>
       </c>
       <c r="B197" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C197" s="5">
         <v>62310.74</v>
@@ -39870,12 +39870,12 @@
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>42490</v>
       </c>
       <c r="B198" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C198" s="5">
         <v>91636.36</v>
@@ -39935,12 +39935,12 @@
       <c r="V198" s="3"/>
       <c r="W198" s="3"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>42521</v>
       </c>
       <c r="B199" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C199" s="5">
         <v>299573.55</v>
@@ -40000,12 +40000,12 @@
       <c r="V199" s="3"/>
       <c r="W199" s="3"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>42551</v>
       </c>
       <c r="B200" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C200" s="5">
         <v>501699.17</v>
@@ -40065,12 +40065,12 @@
       <c r="V200" s="3"/>
       <c r="W200" s="3"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>42582</v>
       </c>
       <c r="B201" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C201" s="5">
         <v>162807.26999999999</v>
@@ -40130,12 +40130,12 @@
       <c r="V201" s="3"/>
       <c r="W201" s="3"/>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>42613</v>
       </c>
       <c r="B202" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C202" s="5">
         <v>109265.45</v>
@@ -40195,12 +40195,12 @@
       <c r="V202" s="3"/>
       <c r="W202" s="3"/>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>42643</v>
       </c>
       <c r="B203" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C203" s="5">
         <v>86064.79</v>
@@ -40260,12 +40260,12 @@
       <c r="V203" s="3"/>
       <c r="W203" s="3"/>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>42674</v>
       </c>
       <c r="B204" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C204" s="5">
         <v>85404.3</v>
@@ -40325,12 +40325,12 @@
       <c r="V204" s="3"/>
       <c r="W204" s="3"/>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>42704</v>
       </c>
       <c r="B205" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C205" s="5">
         <v>60279.67</v>
@@ -40390,12 +40390,12 @@
       <c r="V205" s="3"/>
       <c r="W205" s="3"/>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>42735</v>
       </c>
       <c r="B206" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C206" s="5">
         <v>57905.45</v>
@@ -40455,12 +40455,12 @@
       <c r="V206" s="3"/>
       <c r="W206" s="3"/>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>42766</v>
       </c>
       <c r="B207" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C207" s="5">
         <v>61366.61</v>
@@ -40520,12 +40520,12 @@
       <c r="V207" s="3"/>
       <c r="W207" s="3"/>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>42794</v>
       </c>
       <c r="B208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C208" s="5">
         <v>58161.32</v>
@@ -40585,12 +40585,12 @@
       <c r="V208" s="3"/>
       <c r="W208" s="3"/>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>42825</v>
       </c>
       <c r="B209" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C209" s="5">
         <v>76930.91</v>
@@ -40650,12 +40650,12 @@
       <c r="V209" s="3"/>
       <c r="W209" s="3"/>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>42855</v>
       </c>
       <c r="B210" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C210" s="5">
         <v>112625.45</v>
@@ -40715,12 +40715,12 @@
       <c r="V210" s="3"/>
       <c r="W210" s="3"/>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>42886</v>
       </c>
       <c r="B211" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C211" s="5">
         <v>235047.27</v>
@@ -40780,12 +40780,12 @@
       <c r="V211" s="3"/>
       <c r="W211" s="3"/>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>42916</v>
       </c>
       <c r="B212" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C212" s="5">
         <v>419206.61</v>
@@ -40845,12 +40845,12 @@
       <c r="V212" s="3"/>
       <c r="W212" s="3"/>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>42947</v>
       </c>
       <c r="B213" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C213" s="5">
         <v>177183.47</v>
@@ -40910,12 +40910,12 @@
       <c r="V213" s="3"/>
       <c r="W213" s="3"/>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>42978</v>
       </c>
       <c r="B214" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C214" s="5">
         <v>118813.88</v>
@@ -40975,12 +40975,12 @@
       <c r="V214" s="3"/>
       <c r="W214" s="3"/>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>43008</v>
       </c>
       <c r="B215" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C215" s="5">
         <v>106135.54</v>
@@ -41040,12 +41040,12 @@
       <c r="V215" s="3"/>
       <c r="W215" s="3"/>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>43039</v>
       </c>
       <c r="B216" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C216" s="5">
         <v>106407.27</v>
@@ -41105,12 +41105,12 @@
       <c r="V216" s="3"/>
       <c r="W216" s="3"/>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>43069</v>
       </c>
       <c r="B217" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C217" s="5">
         <v>66991.740000000005</v>
@@ -41170,12 +41170,12 @@
       <c r="V217" s="3"/>
       <c r="W217" s="3"/>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>43100</v>
       </c>
       <c r="B218" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C218" s="5">
         <v>52593.72</v>
@@ -41235,12 +41235,12 @@
       <c r="V218" s="3"/>
       <c r="W218" s="3"/>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>43131</v>
       </c>
       <c r="B219" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C219" s="5">
         <v>55144.46</v>
@@ -41300,12 +41300,12 @@
       <c r="V219" s="3"/>
       <c r="W219" s="3"/>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>43159</v>
       </c>
       <c r="B220" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C220" s="5">
         <v>50447.6</v>
@@ -41365,12 +41365,12 @@
       <c r="V220" s="3"/>
       <c r="W220" s="3"/>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>43190</v>
       </c>
       <c r="B221" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C221" s="5">
         <v>59773.88</v>
@@ -41430,12 +41430,12 @@
       <c r="V221" s="3"/>
       <c r="W221" s="3"/>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>43220</v>
       </c>
       <c r="B222" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C222" s="5">
         <v>89143.14</v>
@@ -41495,12 +41495,12 @@
       <c r="V222" s="3"/>
       <c r="W222" s="3"/>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>43251</v>
       </c>
       <c r="B223" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C223" s="5">
         <v>199555.04</v>
@@ -41560,12 +41560,12 @@
       <c r="V223" s="3"/>
       <c r="W223" s="3"/>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>43281</v>
       </c>
       <c r="B224" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C224" s="5">
         <v>135592.07</v>
@@ -41625,12 +41625,12 @@
       <c r="V224" s="3"/>
       <c r="W224" s="3"/>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>43312</v>
       </c>
       <c r="B225" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C225" s="5">
         <v>93776.53</v>
@@ -41690,12 +41690,12 @@
       <c r="V225" s="3"/>
       <c r="W225" s="3"/>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>43343</v>
       </c>
       <c r="B226" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C226" s="5">
         <v>112677.02</v>
@@ -41755,12 +41755,12 @@
       <c r="V226" s="3"/>
       <c r="W226" s="3"/>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>43373</v>
       </c>
       <c r="B227" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C227" s="5">
         <v>70740.5</v>
@@ -41820,12 +41820,12 @@
       <c r="V227" s="3"/>
       <c r="W227" s="3"/>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>43404</v>
       </c>
       <c r="B228" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C228" s="5">
         <v>59613.22</v>
@@ -41885,12 +41885,12 @@
       <c r="V228" s="3"/>
       <c r="W228" s="3"/>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>43434</v>
       </c>
       <c r="B229" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C229" s="5">
         <v>56110.41</v>
@@ -41950,12 +41950,12 @@
       <c r="V229" s="3"/>
       <c r="W229" s="3"/>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>43465</v>
       </c>
       <c r="B230" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C230" s="5">
         <v>52012.56</v>
@@ -42015,12 +42015,12 @@
       <c r="V230" s="3"/>
       <c r="W230" s="3"/>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>43496</v>
       </c>
       <c r="B231" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C231" s="5">
         <v>45582.15</v>
@@ -42080,12 +42080,12 @@
       <c r="V231" s="3"/>
       <c r="W231" s="3"/>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>43524</v>
       </c>
       <c r="B232" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C232" s="5">
         <v>42055.54</v>
@@ -42145,12 +42145,12 @@
       <c r="V232" s="3"/>
       <c r="W232" s="3"/>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>43555</v>
       </c>
       <c r="B233" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C233" s="5">
         <v>56969.26</v>
@@ -42210,12 +42210,12 @@
       <c r="V233" s="3"/>
       <c r="W233" s="3"/>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>43585</v>
       </c>
       <c r="B234" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C234" s="5">
         <v>112611.57</v>
@@ -42275,12 +42275,12 @@
       <c r="V234" s="3"/>
       <c r="W234" s="3"/>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>43616</v>
       </c>
       <c r="B235" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C235" s="5">
         <v>220998.35</v>
@@ -42340,12 +42340,12 @@
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>43646</v>
       </c>
       <c r="B236" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C236" s="5">
         <v>486466.12</v>
@@ -42405,12 +42405,12 @@
       <c r="V236" s="3"/>
       <c r="W236" s="3"/>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>43677</v>
       </c>
       <c r="B237" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C237" s="5">
         <v>431464.46</v>
@@ -42470,12 +42470,12 @@
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>43708</v>
       </c>
       <c r="B238" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C238" s="5">
         <v>138916.35999999999</v>
@@ -42535,12 +42535,12 @@
       <c r="V238" s="3"/>
       <c r="W238" s="3"/>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>43738</v>
       </c>
       <c r="B239" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C239" s="5">
         <v>107811.57</v>
@@ -42600,12 +42600,12 @@
       <c r="V239" s="3"/>
       <c r="W239" s="3"/>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>43769</v>
       </c>
       <c r="B240" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C240" s="5">
         <v>97015.54</v>
@@ -42665,12 +42665,12 @@
       <c r="V240" s="3"/>
       <c r="W240" s="3"/>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>43799</v>
       </c>
       <c r="B241" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C241" s="5">
         <v>67687.929999999993</v>
@@ -42730,12 +42730,12 @@
       <c r="V241" s="3"/>
       <c r="W241" s="3"/>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>43830</v>
       </c>
       <c r="B242" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C242" s="5">
         <v>54581.16</v>

--- a/data/Verification_Obs_Gage_Data_Linked.xlsx
+++ b/data/Verification_Obs_Gage_Data_Linked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfelletter\Documents\RW-RDF-Process-Plot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D34E863-B7F5-4FB1-A165-A336ECE1671A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A3DB6F-BD10-4E49-8F4F-1A89481C2F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="600" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R_Input" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>2_Gage_ColoradoNearCameo</t>
-  </si>
-  <si>
-    <t>3_Gage_BlueMesa</t>
   </si>
   <si>
     <t>6_Gage_GunnisonNearGrandJunction</t>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>12_Gage_YampaNearMaybell</t>
+  </si>
+  <si>
+    <t>4_Gage_BlueMesa</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <dimension ref="A1:W241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,52 +805,52 @@
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>2000</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>2000</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>2000</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>2000</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>2000</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>2000</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>2000</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1748,7 +1748,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>2000</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>2001</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2015,7 +2015,7 @@
         <v>2001</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>2001</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2282,7 +2282,7 @@
         <v>2001</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2371,7 +2371,7 @@
         <v>2001</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2460,7 +2460,7 @@
         <v>2001</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2638,7 +2638,7 @@
         <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2816,7 +2816,7 @@
         <v>2001</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>2001</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>2002</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>2002</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>2002</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3261,7 +3261,7 @@
         <v>2002</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3350,7 +3350,7 @@
         <v>2002</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3439,7 +3439,7 @@
         <v>2002</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3528,7 +3528,7 @@
         <v>2002</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>2002</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3706,7 +3706,7 @@
         <v>2002</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3795,7 +3795,7 @@
         <v>2002</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3884,7 +3884,7 @@
         <v>2002</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3973,7 +3973,7 @@
         <v>2002</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4062,7 +4062,7 @@
         <v>2003</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>2003</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4240,7 +4240,7 @@
         <v>2003</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4329,7 +4329,7 @@
         <v>2003</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4418,7 +4418,7 @@
         <v>2003</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4507,7 +4507,7 @@
         <v>2003</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4596,7 +4596,7 @@
         <v>2003</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4685,7 +4685,7 @@
         <v>2003</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>2003</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4863,7 +4863,7 @@
         <v>2003</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4952,7 +4952,7 @@
         <v>2003</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -5041,7 +5041,7 @@
         <v>2003</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -5130,7 +5130,7 @@
         <v>2004</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5219,7 +5219,7 @@
         <v>2004</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5308,7 +5308,7 @@
         <v>2004</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>2004</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5486,7 +5486,7 @@
         <v>2004</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5575,7 +5575,7 @@
         <v>2004</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5664,7 +5664,7 @@
         <v>2004</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>2004</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5842,7 +5842,7 @@
         <v>2004</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5931,7 +5931,7 @@
         <v>2004</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6020,7 +6020,7 @@
         <v>2004</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6109,7 +6109,7 @@
         <v>2004</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6198,7 +6198,7 @@
         <v>2005</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6287,7 +6287,7 @@
         <v>2005</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6376,7 +6376,7 @@
         <v>2005</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6465,7 +6465,7 @@
         <v>2005</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6554,7 +6554,7 @@
         <v>2005</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6643,7 +6643,7 @@
         <v>2005</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6732,7 +6732,7 @@
         <v>2005</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6821,7 +6821,7 @@
         <v>2005</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6910,7 +6910,7 @@
         <v>2005</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6999,7 +6999,7 @@
         <v>2005</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -7088,7 +7088,7 @@
         <v>2005</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -7177,7 +7177,7 @@
         <v>2005</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -7266,7 +7266,7 @@
         <v>2006</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7355,7 +7355,7 @@
         <v>2006</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7444,7 +7444,7 @@
         <v>2006</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         <v>2006</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7622,7 +7622,7 @@
         <v>2006</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7711,7 +7711,7 @@
         <v>2006</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7800,7 +7800,7 @@
         <v>2006</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7889,7 +7889,7 @@
         <v>2006</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7978,7 +7978,7 @@
         <v>2006</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -8067,7 +8067,7 @@
         <v>2006</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -8156,7 +8156,7 @@
         <v>2006</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -8245,7 +8245,7 @@
         <v>2006</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -8334,7 +8334,7 @@
         <v>2007</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -8423,7 +8423,7 @@
         <v>2007</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -8512,7 +8512,7 @@
         <v>2007</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -8601,7 +8601,7 @@
         <v>2007</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -8690,7 +8690,7 @@
         <v>2007</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -8779,7 +8779,7 @@
         <v>2007</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -8868,7 +8868,7 @@
         <v>2007</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8957,7 +8957,7 @@
         <v>2007</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -9046,7 +9046,7 @@
         <v>2007</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -9135,7 +9135,7 @@
         <v>2007</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -9224,7 +9224,7 @@
         <v>2007</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -9313,7 +9313,7 @@
         <v>2007</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -9402,7 +9402,7 @@
         <v>2008</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -9491,7 +9491,7 @@
         <v>2008</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -9580,7 +9580,7 @@
         <v>2008</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -9669,7 +9669,7 @@
         <v>2008</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -9758,7 +9758,7 @@
         <v>2008</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -9847,7 +9847,7 @@
         <v>2008</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -9936,7 +9936,7 @@
         <v>2008</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -10025,7 +10025,7 @@
         <v>2008</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -10114,7 +10114,7 @@
         <v>2008</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -10203,7 +10203,7 @@
         <v>2008</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -10292,7 +10292,7 @@
         <v>2008</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -10381,7 +10381,7 @@
         <v>2008</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -10470,7 +10470,7 @@
         <v>2009</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -10559,7 +10559,7 @@
         <v>2009</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -10648,7 +10648,7 @@
         <v>2009</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -10737,7 +10737,7 @@
         <v>2009</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -10826,7 +10826,7 @@
         <v>2009</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -10915,7 +10915,7 @@
         <v>2009</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -11004,7 +11004,7 @@
         <v>2009</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -11093,7 +11093,7 @@
         <v>2009</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -11182,7 +11182,7 @@
         <v>2009</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -11271,7 +11271,7 @@
         <v>2009</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -11360,7 +11360,7 @@
         <v>2009</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -11449,7 +11449,7 @@
         <v>2009</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -11538,7 +11538,7 @@
         <v>2010</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -11627,7 +11627,7 @@
         <v>2010</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -11716,7 +11716,7 @@
         <v>2010</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -11805,7 +11805,7 @@
         <v>2010</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -11894,7 +11894,7 @@
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -11983,7 +11983,7 @@
         <v>2010</v>
       </c>
       <c r="B127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -12072,7 +12072,7 @@
         <v>2010</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -12161,7 +12161,7 @@
         <v>2010</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -12250,7 +12250,7 @@
         <v>2010</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -12339,7 +12339,7 @@
         <v>2010</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -12428,7 +12428,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -12517,7 +12517,7 @@
         <v>2010</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -12606,7 +12606,7 @@
         <v>2011</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -12695,7 +12695,7 @@
         <v>2011</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -12784,7 +12784,7 @@
         <v>2011</v>
       </c>
       <c r="B136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -12873,7 +12873,7 @@
         <v>2011</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -12962,7 +12962,7 @@
         <v>2011</v>
       </c>
       <c r="B138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -13051,7 +13051,7 @@
         <v>2011</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -13140,7 +13140,7 @@
         <v>2011</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -13229,7 +13229,7 @@
         <v>2011</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -13318,7 +13318,7 @@
         <v>2011</v>
       </c>
       <c r="B142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -13407,7 +13407,7 @@
         <v>2011</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -13496,7 +13496,7 @@
         <v>2011</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -13585,7 +13585,7 @@
         <v>2011</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -13674,7 +13674,7 @@
         <v>2012</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -13763,7 +13763,7 @@
         <v>2012</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -13852,7 +13852,7 @@
         <v>2012</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         <v>2012</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -14030,7 +14030,7 @@
         <v>2012</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -14119,7 +14119,7 @@
         <v>2012</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -14208,7 +14208,7 @@
         <v>2012</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -14297,7 +14297,7 @@
         <v>2012</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -14386,7 +14386,7 @@
         <v>2012</v>
       </c>
       <c r="B154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -14475,7 +14475,7 @@
         <v>2012</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -14564,7 +14564,7 @@
         <v>2012</v>
       </c>
       <c r="B156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>2012</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -14742,7 +14742,7 @@
         <v>2013</v>
       </c>
       <c r="B158" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -14831,7 +14831,7 @@
         <v>2013</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -14920,7 +14920,7 @@
         <v>2013</v>
       </c>
       <c r="B160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -15009,7 +15009,7 @@
         <v>2013</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -15098,7 +15098,7 @@
         <v>2013</v>
       </c>
       <c r="B162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -15187,7 +15187,7 @@
         <v>2013</v>
       </c>
       <c r="B163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -15276,7 +15276,7 @@
         <v>2013</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -15365,7 +15365,7 @@
         <v>2013</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -15454,7 +15454,7 @@
         <v>2013</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -15543,7 +15543,7 @@
         <v>2013</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -15632,7 +15632,7 @@
         <v>2013</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -15721,7 +15721,7 @@
         <v>2013</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -15810,7 +15810,7 @@
         <v>2014</v>
       </c>
       <c r="B170" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -15899,7 +15899,7 @@
         <v>2014</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -15988,7 +15988,7 @@
         <v>2014</v>
       </c>
       <c r="B172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -16077,7 +16077,7 @@
         <v>2014</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -16166,7 +16166,7 @@
         <v>2014</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -16255,7 +16255,7 @@
         <v>2014</v>
       </c>
       <c r="B175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -16344,7 +16344,7 @@
         <v>2014</v>
       </c>
       <c r="B176" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -16433,7 +16433,7 @@
         <v>2014</v>
       </c>
       <c r="B177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -16522,7 +16522,7 @@
         <v>2014</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -16611,7 +16611,7 @@
         <v>2014</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -16700,7 +16700,7 @@
         <v>2014</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -16789,7 +16789,7 @@
         <v>2014</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -16878,7 +16878,7 @@
         <v>2015</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -16967,7 +16967,7 @@
         <v>2015</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -17056,7 +17056,7 @@
         <v>2015</v>
       </c>
       <c r="B184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -17145,7 +17145,7 @@
         <v>2015</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -17234,7 +17234,7 @@
         <v>2015</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -17323,7 +17323,7 @@
         <v>2015</v>
       </c>
       <c r="B187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -17412,7 +17412,7 @@
         <v>2015</v>
       </c>
       <c r="B188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -17501,7 +17501,7 @@
         <v>2015</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -17590,7 +17590,7 @@
         <v>2015</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -17679,7 +17679,7 @@
         <v>2015</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -17768,7 +17768,7 @@
         <v>2015</v>
       </c>
       <c r="B192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -17857,7 +17857,7 @@
         <v>2015</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -17946,7 +17946,7 @@
         <v>2016</v>
       </c>
       <c r="B194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -18035,7 +18035,7 @@
         <v>2016</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -18124,7 +18124,7 @@
         <v>2016</v>
       </c>
       <c r="B196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -18213,7 +18213,7 @@
         <v>2016</v>
       </c>
       <c r="B197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -18302,7 +18302,7 @@
         <v>2016</v>
       </c>
       <c r="B198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -18391,7 +18391,7 @@
         <v>2016</v>
       </c>
       <c r="B199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -18480,7 +18480,7 @@
         <v>2016</v>
       </c>
       <c r="B200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -18569,7 +18569,7 @@
         <v>2016</v>
       </c>
       <c r="B201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -18658,7 +18658,7 @@
         <v>2016</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -18747,7 +18747,7 @@
         <v>2016</v>
       </c>
       <c r="B203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -18836,7 +18836,7 @@
         <v>2016</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -18925,7 +18925,7 @@
         <v>2016</v>
       </c>
       <c r="B205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -19014,7 +19014,7 @@
         <v>2017</v>
       </c>
       <c r="B206" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -19103,7 +19103,7 @@
         <v>2017</v>
       </c>
       <c r="B207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -19192,7 +19192,7 @@
         <v>2017</v>
       </c>
       <c r="B208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -19281,7 +19281,7 @@
         <v>2017</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -19370,7 +19370,7 @@
         <v>2017</v>
       </c>
       <c r="B210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -19459,7 +19459,7 @@
         <v>2017</v>
       </c>
       <c r="B211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -19548,7 +19548,7 @@
         <v>2017</v>
       </c>
       <c r="B212" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -19637,7 +19637,7 @@
         <v>2017</v>
       </c>
       <c r="B213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -19726,7 +19726,7 @@
         <v>2017</v>
       </c>
       <c r="B214" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -19815,7 +19815,7 @@
         <v>2017</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -19904,7 +19904,7 @@
         <v>2017</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -19993,7 +19993,7 @@
         <v>2017</v>
       </c>
       <c r="B217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -20082,7 +20082,7 @@
         <v>2018</v>
       </c>
       <c r="B218" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -20171,7 +20171,7 @@
         <v>2018</v>
       </c>
       <c r="B219" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -20260,7 +20260,7 @@
         <v>2018</v>
       </c>
       <c r="B220" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         <v>2018</v>
       </c>
       <c r="B221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -20438,7 +20438,7 @@
         <v>2018</v>
       </c>
       <c r="B222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -20527,7 +20527,7 @@
         <v>2018</v>
       </c>
       <c r="B223" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -20616,7 +20616,7 @@
         <v>2018</v>
       </c>
       <c r="B224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -20705,7 +20705,7 @@
         <v>2018</v>
       </c>
       <c r="B225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -20794,7 +20794,7 @@
         <v>2018</v>
       </c>
       <c r="B226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -20883,7 +20883,7 @@
         <v>2018</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -20972,7 +20972,7 @@
         <v>2018</v>
       </c>
       <c r="B228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -21061,7 +21061,7 @@
         <v>2018</v>
       </c>
       <c r="B229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -21150,7 +21150,7 @@
         <v>2019</v>
       </c>
       <c r="B230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -21239,7 +21239,7 @@
         <v>2019</v>
       </c>
       <c r="B231" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -21328,7 +21328,7 @@
         <v>2019</v>
       </c>
       <c r="B232" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -21417,7 +21417,7 @@
         <v>2019</v>
       </c>
       <c r="B233" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -21506,7 +21506,7 @@
         <v>2019</v>
       </c>
       <c r="B234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -21595,7 +21595,7 @@
         <v>2019</v>
       </c>
       <c r="B235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -21684,7 +21684,7 @@
         <v>2019</v>
       </c>
       <c r="B236" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -21773,7 +21773,7 @@
         <v>2019</v>
       </c>
       <c r="B237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -21862,7 +21862,7 @@
         <v>2019</v>
       </c>
       <c r="B238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -21951,7 +21951,7 @@
         <v>2019</v>
       </c>
       <c r="B239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -22040,7 +22040,7 @@
         <v>2019</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -22129,7 +22129,7 @@
         <v>2019</v>
       </c>
       <c r="B241" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -22231,22 +22231,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -27075,62 +27075,62 @@
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
@@ -27138,58 +27138,58 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -27200,7 +27200,7 @@
         <v>36556</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5">
         <v>62675.7</v>
@@ -27265,7 +27265,7 @@
         <v>36585</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5">
         <v>59704.46</v>
@@ -27330,7 +27330,7 @@
         <v>36616</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5">
         <v>65153.06</v>
@@ -27395,7 +27395,7 @@
         <v>36646</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5">
         <v>98681.65</v>
@@ -27460,7 +27460,7 @@
         <v>36677</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5">
         <v>291451.24</v>
@@ -27525,7 +27525,7 @@
         <v>36707</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5">
         <v>234823.14</v>
@@ -27590,7 +27590,7 @@
         <v>36738</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5">
         <v>117151.74</v>
@@ -27655,7 +27655,7 @@
         <v>36769</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5">
         <v>111808.26</v>
@@ -27720,7 +27720,7 @@
         <v>36799</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5">
         <v>90934.21</v>
@@ -27785,7 +27785,7 @@
         <v>36830</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5">
         <v>79676.03</v>
@@ -27850,7 +27850,7 @@
         <v>36860</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
         <v>55350.74</v>
@@ -27915,7 +27915,7 @@
         <v>36891</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5">
         <v>51014.879999999997</v>
@@ -27980,7 +27980,7 @@
         <v>36922</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="5">
         <v>49392.4</v>
@@ -28045,7 +28045,7 @@
         <v>36950</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5">
         <v>48977.85</v>
@@ -28110,7 +28110,7 @@
         <v>36981</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5">
         <v>58137.52</v>
@@ -28175,7 +28175,7 @@
         <v>37011</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5">
         <v>83270.080000000002</v>
@@ -28240,7 +28240,7 @@
         <v>37042</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5">
         <v>203026.12</v>
@@ -28305,7 +28305,7 @@
         <v>37072</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5">
         <v>152647.93</v>
@@ -28370,7 +28370,7 @@
         <v>37103</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5">
         <v>87104.13</v>
@@ -28435,7 +28435,7 @@
         <v>37134</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5">
         <v>91168.26</v>
@@ -28500,7 +28500,7 @@
         <v>37164</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5">
         <v>90549.42</v>
@@ -28565,7 +28565,7 @@
         <v>37195</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="5">
         <v>69288.600000000006</v>
@@ -28630,7 +28630,7 @@
         <v>37225</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5">
         <v>47472.4</v>
@@ -28695,7 +28695,7 @@
         <v>37256</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="5">
         <v>36716.03</v>
@@ -28760,7 +28760,7 @@
         <v>37287</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="5">
         <v>43324.959999999999</v>
@@ -28825,7 +28825,7 @@
         <v>37315</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5">
         <v>36928.26</v>
@@ -28890,7 +28890,7 @@
         <v>37346</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5">
         <v>46244.63</v>
@@ -28955,7 +28955,7 @@
         <v>37376</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5">
         <v>77117.36</v>
@@ -29020,7 +29020,7 @@
         <v>37407</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="5">
         <v>87732.89</v>
@@ -29085,7 +29085,7 @@
         <v>37437</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5">
         <v>75242.98</v>
@@ -29150,7 +29150,7 @@
         <v>37468</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="5">
         <v>67400.33</v>
@@ -29215,7 +29215,7 @@
         <v>37499</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5">
         <v>62084.63</v>
@@ -29280,7 +29280,7 @@
         <v>37529</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="5">
         <v>46974.55</v>
@@ -29345,7 +29345,7 @@
         <v>37560</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5">
         <v>49727.6</v>
@@ -29410,7 +29410,7 @@
         <v>37590</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5">
         <v>51340.17</v>
@@ -29475,7 +29475,7 @@
         <v>37621</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5">
         <v>38608.26</v>
@@ -29540,7 +29540,7 @@
         <v>37652</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5">
         <v>38134.21</v>
@@ -29605,7 +29605,7 @@
         <v>37680</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5">
         <v>37436.03</v>
@@ -29670,7 +29670,7 @@
         <v>37711</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="5">
         <v>50806.61</v>
@@ -29735,7 +29735,7 @@
         <v>37741</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="5">
         <v>63034.71</v>
@@ -29800,7 +29800,7 @@
         <v>37772</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5">
         <v>226992.4</v>
@@ -29865,7 +29865,7 @@
         <v>37802</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="5">
         <v>251107.44</v>
@@ -29930,7 +29930,7 @@
         <v>37833</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="5">
         <v>90105.12</v>
@@ -29995,7 +29995,7 @@
         <v>37864</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="5">
         <v>84245.95</v>
@@ -30060,7 +30060,7 @@
         <v>37894</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="5">
         <v>83809.59</v>
@@ -30125,7 +30125,7 @@
         <v>37925</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="5">
         <v>94962.64</v>
@@ -30190,7 +30190,7 @@
         <v>37955</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="5">
         <v>52778.18</v>
@@ -30255,7 +30255,7 @@
         <v>37986</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="5">
         <v>48448.26</v>
@@ -30320,7 +30320,7 @@
         <v>38017</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="5">
         <v>44628.1</v>
@@ -30385,7 +30385,7 @@
         <v>38046</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="5">
         <v>43128.6</v>
@@ -30450,7 +30450,7 @@
         <v>38077</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="5">
         <v>57385.79</v>
@@ -30515,7 +30515,7 @@
         <v>38107</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="5">
         <v>65545.789999999994</v>
@@ -30580,7 +30580,7 @@
         <v>38138</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="5">
         <v>142928.93</v>
@@ -30645,7 +30645,7 @@
         <v>38168</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="5">
         <v>119702.48</v>
@@ -30710,7 +30710,7 @@
         <v>38199</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="5">
         <v>78795.37</v>
@@ -30775,7 +30775,7 @@
         <v>38230</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="5">
         <v>80743.14</v>
@@ -30840,7 +30840,7 @@
         <v>38260</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="5">
         <v>75346.12</v>
@@ -30905,7 +30905,7 @@
         <v>38291</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="5">
         <v>78904.460000000006</v>
@@ -30970,7 +30970,7 @@
         <v>38321</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="5">
         <v>64544.13</v>
@@ -31035,7 +31035,7 @@
         <v>38352</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="5">
         <v>49912.07</v>
@@ -31100,7 +31100,7 @@
         <v>38383</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="5">
         <v>51717.02</v>
@@ -31165,7 +31165,7 @@
         <v>38411</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="5">
         <v>39582.15</v>
@@ -31230,7 +31230,7 @@
         <v>38442</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="5">
         <v>47936.53</v>
@@ -31295,7 +31295,7 @@
         <v>38472</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="5">
         <v>87399.67</v>
@@ -31360,7 +31360,7 @@
         <v>38503</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="5">
         <v>209341.49</v>
@@ -31425,7 +31425,7 @@
         <v>38533</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="5">
         <v>266856.2</v>
@@ -31490,7 +31490,7 @@
         <v>38564</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="5">
         <v>158796.69</v>
@@ -31555,7 +31555,7 @@
         <v>38595</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="5">
         <v>91644.3</v>
@@ -31620,7 +31620,7 @@
         <v>38625</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="5">
         <v>86372.23</v>
@@ -31685,7 +31685,7 @@
         <v>38656</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="5">
         <v>79438.02</v>
@@ -31750,7 +31750,7 @@
         <v>38686</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="5">
         <v>70956.69</v>
@@ -31815,7 +31815,7 @@
         <v>38717</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="5">
         <v>64506.45</v>
@@ -31880,7 +31880,7 @@
         <v>38748</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C75" s="5">
         <v>58387.44</v>
@@ -31945,7 +31945,7 @@
         <v>38776</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="5">
         <v>52915.040000000001</v>
@@ -32010,7 +32010,7 @@
         <v>38807</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" s="5">
         <v>73138.509999999995</v>
@@ -32075,7 +32075,7 @@
         <v>38837</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78" s="5">
         <v>149617.19</v>
@@ -32140,7 +32140,7 @@
         <v>38868</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="5">
         <v>309976.86</v>
@@ -32205,7 +32205,7 @@
         <v>38898</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C80" s="5">
         <v>223517.36</v>
@@ -32270,7 +32270,7 @@
         <v>38929</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" s="5">
         <v>128897.85</v>
@@ -32335,7 +32335,7 @@
         <v>38960</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" s="5">
         <v>102476.03</v>
@@ -32400,7 +32400,7 @@
         <v>38990</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="5">
         <v>97580.83</v>
@@ -32465,7 +32465,7 @@
         <v>39021</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="5">
         <v>84930.25</v>
@@ -32530,7 +32530,7 @@
         <v>39051</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="5">
         <v>71006.28</v>
@@ -32595,7 +32595,7 @@
         <v>39082</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C86" s="5">
         <v>61921.98</v>
@@ -32660,7 +32660,7 @@
         <v>39113</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" s="5">
         <v>51153.72</v>
@@ -32725,7 +32725,7 @@
         <v>39141</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" s="5">
         <v>56544.79</v>
@@ -32790,7 +32790,7 @@
         <v>39172</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C89" s="5">
         <v>86483.31</v>
@@ -32855,7 +32855,7 @@
         <v>39202</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" s="5">
         <v>103874.38</v>
@@ -32920,7 +32920,7 @@
         <v>39233</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="5">
         <v>254796.69</v>
@@ -32985,7 +32985,7 @@
         <v>39263</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C92" s="5">
         <v>250175.21</v>
@@ -33050,7 +33050,7 @@
         <v>39294</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C93" s="5">
         <v>120583.14</v>
@@ -33115,7 +33115,7 @@
         <v>39325</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C94" s="5">
         <v>88891.24</v>
@@ -33180,7 +33180,7 @@
         <v>39355</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C95" s="5">
         <v>92102.48</v>
@@ -33245,7 +33245,7 @@
         <v>39386</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C96" s="5">
         <v>88365.62</v>
@@ -33310,7 +33310,7 @@
         <v>39416</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C97" s="5">
         <v>61168.26</v>
@@ -33375,7 +33375,7 @@
         <v>39447</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" s="5">
         <v>55896.2</v>
@@ -33440,7 +33440,7 @@
         <v>39478</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C99" s="5">
         <v>48426.45</v>
@@ -33505,7 +33505,7 @@
         <v>39507</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C100" s="5">
         <v>52649.26</v>
@@ -33570,7 +33570,7 @@
         <v>39538</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" s="5">
         <v>67511.399999999994</v>
@@ -33635,7 +33635,7 @@
         <v>39568</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C102" s="5">
         <v>107710.41</v>
@@ -33700,7 +33700,7 @@
         <v>39599</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C103" s="5">
         <v>376819.83</v>
@@ -33765,7 +33765,7 @@
         <v>39629</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C104" s="5">
         <v>508522.31</v>
@@ -33830,7 +33830,7 @@
         <v>39660</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" s="5">
         <v>253071.07</v>
@@ -33895,7 +33895,7 @@
         <v>39691</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C106" s="5">
         <v>119452.56</v>
@@ -33960,7 +33960,7 @@
         <v>39721</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C107" s="5">
         <v>118004.63</v>
@@ -34025,7 +34025,7 @@
         <v>39752</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C108" s="5">
         <v>102535.54</v>
@@ -34090,7 +34090,7 @@
         <v>39782</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C109" s="5">
         <v>62850.25</v>
@@ -34155,7 +34155,7 @@
         <v>39813</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C110" s="5">
         <v>57389.75</v>
@@ -34220,7 +34220,7 @@
         <v>39844</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C111" s="5">
         <v>56881.98</v>
@@ -34285,7 +34285,7 @@
         <v>39872</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C112" s="5">
         <v>51175.54</v>
@@ -34350,7 +34350,7 @@
         <v>39903</v>
       </c>
       <c r="B113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C113" s="5">
         <v>57484.959999999999</v>
@@ -34415,7 +34415,7 @@
         <v>39933</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" s="5">
         <v>107970.25</v>
@@ -34480,7 +34480,7 @@
         <v>39964</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115" s="5">
         <v>454234.71</v>
@@ -34545,7 +34545,7 @@
         <v>39994</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C116" s="5">
         <v>491325.62</v>
@@ -34610,7 +34610,7 @@
         <v>40025</v>
       </c>
       <c r="B117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C117" s="5">
         <v>234049.59</v>
@@ -34675,7 +34675,7 @@
         <v>40056</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C118" s="5">
         <v>111953.06</v>
@@ -34740,7 +34740,7 @@
         <v>40086</v>
       </c>
       <c r="B119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C119" s="5">
         <v>89424.79</v>
@@ -34805,7 +34805,7 @@
         <v>40117</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C120" s="5">
         <v>89174.88</v>
@@ -34870,7 +34870,7 @@
         <v>40147</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C121" s="5">
         <v>52266.45</v>
@@ -34935,7 +34935,7 @@
         <v>40178</v>
       </c>
       <c r="B122" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C122" s="5">
         <v>46173.22</v>
@@ -35000,7 +35000,7 @@
         <v>40209</v>
       </c>
       <c r="B123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C123" s="5">
         <v>53313.72</v>
@@ -35065,7 +35065,7 @@
         <v>40237</v>
       </c>
       <c r="B124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C124" s="5">
         <v>48706.12</v>
@@ -35130,7 +35130,7 @@
         <v>40268</v>
       </c>
       <c r="B125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C125" s="5">
         <v>54817.19</v>
@@ -35195,7 +35195,7 @@
         <v>40298</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C126" s="5">
         <v>92568.6</v>
@@ -35260,7 +35260,7 @@
         <v>40329</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C127" s="5">
         <v>223860.5</v>
@@ -35325,7 +35325,7 @@
         <v>40359</v>
       </c>
       <c r="B128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C128" s="5">
         <v>481685.95</v>
@@ -35390,7 +35390,7 @@
         <v>40390</v>
       </c>
       <c r="B129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C129" s="5">
         <v>150150.74</v>
@@ -35455,7 +35455,7 @@
         <v>40421</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C130" s="5">
         <v>122165.95</v>
@@ -35520,7 +35520,7 @@
         <v>40451</v>
       </c>
       <c r="B131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C131" s="5">
         <v>103380.5</v>
@@ -35585,7 +35585,7 @@
         <v>40482</v>
       </c>
       <c r="B132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C132" s="5">
         <v>97092.89</v>
@@ -35650,7 +35650,7 @@
         <v>40512</v>
       </c>
       <c r="B133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C133" s="5">
         <v>63104.13</v>
@@ -35715,7 +35715,7 @@
         <v>40543</v>
       </c>
       <c r="B134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C134" s="5">
         <v>60585.120000000003</v>
@@ -35780,7 +35780,7 @@
         <v>40574</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C135" s="5">
         <v>52907.11</v>
@@ -35845,7 +35845,7 @@
         <v>40602</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C136" s="5">
         <v>48755.7</v>
@@ -35910,7 +35910,7 @@
         <v>40633</v>
       </c>
       <c r="B137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C137" s="5">
         <v>75177.52</v>
@@ -35975,7 +35975,7 @@
         <v>40663</v>
       </c>
       <c r="B138" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C138" s="5">
         <v>161656.85999999999</v>
@@ -36040,7 +36040,7 @@
         <v>40694</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C139" s="5">
         <v>442464.79</v>
@@ -36105,7 +36105,7 @@
         <v>40724</v>
       </c>
       <c r="B140" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C140" s="5">
         <v>940899.17</v>
@@ -36170,7 +36170,7 @@
         <v>40755</v>
       </c>
       <c r="B141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C141" s="5">
         <v>678148.76</v>
@@ -36235,7 +36235,7 @@
         <v>40786</v>
       </c>
       <c r="B142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C142" s="5">
         <v>194802.64</v>
@@ -36300,7 +36300,7 @@
         <v>40816</v>
       </c>
       <c r="B143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C143" s="5">
         <v>125668.76</v>
@@ -36365,7 +36365,7 @@
         <v>40847</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C144" s="5">
         <v>120021.82</v>
@@ -36430,7 +36430,7 @@
         <v>40877</v>
       </c>
       <c r="B145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C145" s="5">
         <v>76861.490000000005</v>
@@ -36495,7 +36495,7 @@
         <v>40908</v>
       </c>
       <c r="B146" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C146" s="5">
         <v>63118.02</v>
@@ -36560,7 +36560,7 @@
         <v>40939</v>
       </c>
       <c r="B147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C147" s="5">
         <v>61705.79</v>
@@ -36625,7 +36625,7 @@
         <v>40968</v>
       </c>
       <c r="B148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C148" s="5">
         <v>53623.14</v>
@@ -36690,7 +36690,7 @@
         <v>40999</v>
       </c>
       <c r="B149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C149" s="5">
         <v>72723.97</v>
@@ -36755,7 +36755,7 @@
         <v>41029</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C150" s="5">
         <v>84795.37</v>
@@ -36820,7 +36820,7 @@
         <v>41060</v>
       </c>
       <c r="B151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C151" s="5">
         <v>115112.73</v>
@@ -36885,7 +36885,7 @@
         <v>41090</v>
       </c>
       <c r="B152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C152" s="5">
         <v>84960</v>
@@ -36950,7 +36950,7 @@
         <v>41121</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C153" s="5">
         <v>95069.75</v>
@@ -37015,7 +37015,7 @@
         <v>41152</v>
       </c>
       <c r="B154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C154" s="5">
         <v>92846.28</v>
@@ -37080,7 +37080,7 @@
         <v>41182</v>
       </c>
       <c r="B155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C155" s="5">
         <v>72253.88</v>
@@ -37145,7 +37145,7 @@
         <v>41213</v>
       </c>
       <c r="B156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C156" s="5">
         <v>66053.55</v>
@@ -37210,7 +37210,7 @@
         <v>41243</v>
       </c>
       <c r="B157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C157" s="5">
         <v>49200</v>
@@ -37275,7 +37275,7 @@
         <v>41274</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C158" s="5">
         <v>43741.49</v>
@@ -37340,7 +37340,7 @@
         <v>41305</v>
       </c>
       <c r="B159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C159" s="5">
         <v>45649.59</v>
@@ -37405,7 +37405,7 @@
         <v>41333</v>
       </c>
       <c r="B160" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C160" s="5">
         <v>41988.1</v>
@@ -37470,7 +37470,7 @@
         <v>41364</v>
       </c>
       <c r="B161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C161" s="5">
         <v>48971.9</v>
@@ -37535,7 +37535,7 @@
         <v>41394</v>
       </c>
       <c r="B162" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C162" s="5">
         <v>59278.02</v>
@@ -37600,7 +37600,7 @@
         <v>41425</v>
       </c>
       <c r="B163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C163" s="5">
         <v>226123.64</v>
@@ -37665,7 +37665,7 @@
         <v>41455</v>
       </c>
       <c r="B164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C164" s="5">
         <v>205388.43</v>
@@ -37730,7 +37730,7 @@
         <v>41486</v>
       </c>
       <c r="B165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C165" s="5">
         <v>93328.26</v>
@@ -37795,7 +37795,7 @@
         <v>41517</v>
       </c>
       <c r="B166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C166" s="5">
         <v>101155.04</v>
@@ -37860,7 +37860,7 @@
         <v>41547</v>
       </c>
       <c r="B167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C167" s="5">
         <v>91933.88</v>
@@ -37925,7 +37925,7 @@
         <v>41578</v>
       </c>
       <c r="B168" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C168" s="5">
         <v>81970.91</v>
@@ -37990,7 +37990,7 @@
         <v>41608</v>
       </c>
       <c r="B169" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C169" s="5">
         <v>64389.42</v>
@@ -38055,7 +38055,7 @@
         <v>41639</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C170" s="5">
         <v>48839.01</v>
@@ -38120,7 +38120,7 @@
         <v>41670</v>
       </c>
       <c r="B171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C171" s="5">
         <v>58119.67</v>
@@ -38185,7 +38185,7 @@
         <v>41698</v>
       </c>
       <c r="B172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C172" s="5">
         <v>61221.82</v>
@@ -38250,7 +38250,7 @@
         <v>41729</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C173" s="5">
         <v>87740.83</v>
@@ -38315,7 +38315,7 @@
         <v>41759</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C174" s="5">
         <v>211326.94</v>
@@ -38380,7 +38380,7 @@
         <v>41790</v>
       </c>
       <c r="B175" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C175" s="5">
         <v>527920.66</v>
@@ -38445,7 +38445,7 @@
         <v>41820</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C176" s="5">
         <v>608905.79</v>
@@ -38510,7 +38510,7 @@
         <v>41851</v>
       </c>
       <c r="B177" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C177" s="5">
         <v>241130.58</v>
@@ -38575,7 +38575,7 @@
         <v>41882</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C178" s="5">
         <v>123665.45</v>
@@ -38640,7 +38640,7 @@
         <v>41912</v>
       </c>
       <c r="B179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C179" s="5">
         <v>112367.6</v>
@@ -38705,7 +38705,7 @@
         <v>41943</v>
       </c>
       <c r="B180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C180" s="5">
         <v>118143.47</v>
@@ -38770,7 +38770,7 @@
         <v>41973</v>
       </c>
       <c r="B181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C181" s="5">
         <v>78013.88</v>
@@ -38835,7 +38835,7 @@
         <v>42004</v>
       </c>
       <c r="B182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C182" s="5">
         <v>60706.12</v>
@@ -38900,7 +38900,7 @@
         <v>42035</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C183" s="5">
         <v>63149.75</v>
@@ -38965,7 +38965,7 @@
         <v>42063</v>
       </c>
       <c r="B184" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C184" s="5">
         <v>62021.16</v>
@@ -39030,7 +39030,7 @@
         <v>42094</v>
       </c>
       <c r="B185" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C185" s="5">
         <v>83377.19</v>
@@ -39095,7 +39095,7 @@
         <v>42124</v>
       </c>
       <c r="B186" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C186" s="5">
         <v>112415.21</v>
@@ -39160,7 +39160,7 @@
         <v>42155</v>
       </c>
       <c r="B187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C187" s="5">
         <v>303060.5</v>
@@ -39225,7 +39225,7 @@
         <v>42185</v>
       </c>
       <c r="B188" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C188" s="5">
         <v>623504.13</v>
@@ -39290,7 +39290,7 @@
         <v>42216</v>
       </c>
       <c r="B189" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C189" s="5">
         <v>237401.65</v>
@@ -39355,7 +39355,7 @@
         <v>42247</v>
       </c>
       <c r="B190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C190" s="5">
         <v>103618.51</v>
@@ -39420,7 +39420,7 @@
         <v>42277</v>
       </c>
       <c r="B191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C191" s="5">
         <v>94236.69</v>
@@ -39485,7 +39485,7 @@
         <v>42308</v>
       </c>
       <c r="B192" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C192" s="5">
         <v>91529.26</v>
@@ -39550,7 +39550,7 @@
         <v>42338</v>
       </c>
       <c r="B193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C193" s="5">
         <v>63570.25</v>
@@ -39615,7 +39615,7 @@
         <v>42369</v>
       </c>
       <c r="B194" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C194" s="5">
         <v>54825.120000000003</v>
@@ -39680,7 +39680,7 @@
         <v>42400</v>
       </c>
       <c r="B195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C195" s="5">
         <v>53734.21</v>
@@ -39745,7 +39745,7 @@
         <v>42429</v>
       </c>
       <c r="B196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C196" s="5">
         <v>53097.52</v>
@@ -39810,7 +39810,7 @@
         <v>42460</v>
       </c>
       <c r="B197" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C197" s="5">
         <v>62310.74</v>
@@ -39875,7 +39875,7 @@
         <v>42490</v>
       </c>
       <c r="B198" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C198" s="5">
         <v>91636.36</v>
@@ -39940,7 +39940,7 @@
         <v>42521</v>
       </c>
       <c r="B199" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C199" s="5">
         <v>299573.55</v>
@@ -40005,7 +40005,7 @@
         <v>42551</v>
       </c>
       <c r="B200" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C200" s="5">
         <v>501699.17</v>
@@ -40070,7 +40070,7 @@
         <v>42582</v>
       </c>
       <c r="B201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C201" s="5">
         <v>162807.26999999999</v>
@@ -40135,7 +40135,7 @@
         <v>42613</v>
       </c>
       <c r="B202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C202" s="5">
         <v>109265.45</v>
@@ -40200,7 +40200,7 @@
         <v>42643</v>
       </c>
       <c r="B203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C203" s="5">
         <v>86064.79</v>
@@ -40265,7 +40265,7 @@
         <v>42674</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C204" s="5">
         <v>85404.3</v>
@@ -40330,7 +40330,7 @@
         <v>42704</v>
       </c>
       <c r="B205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C205" s="5">
         <v>60279.67</v>
@@ -40395,7 +40395,7 @@
         <v>42735</v>
       </c>
       <c r="B206" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C206" s="5">
         <v>57905.45</v>
@@ -40460,7 +40460,7 @@
         <v>42766</v>
       </c>
       <c r="B207" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C207" s="5">
         <v>61366.61</v>
@@ -40525,7 +40525,7 @@
         <v>42794</v>
       </c>
       <c r="B208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C208" s="5">
         <v>58161.32</v>
@@ -40590,7 +40590,7 @@
         <v>42825</v>
       </c>
       <c r="B209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C209" s="5">
         <v>76930.91</v>
@@ -40655,7 +40655,7 @@
         <v>42855</v>
       </c>
       <c r="B210" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C210" s="5">
         <v>112625.45</v>
@@ -40720,7 +40720,7 @@
         <v>42886</v>
       </c>
       <c r="B211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C211" s="5">
         <v>235047.27</v>
@@ -40785,7 +40785,7 @@
         <v>42916</v>
       </c>
       <c r="B212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C212" s="5">
         <v>419206.61</v>
@@ -40850,7 +40850,7 @@
         <v>42947</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C213" s="5">
         <v>177183.47</v>
@@ -40915,7 +40915,7 @@
         <v>42978</v>
       </c>
       <c r="B214" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C214" s="5">
         <v>118813.88</v>
@@ -40980,7 +40980,7 @@
         <v>43008</v>
       </c>
       <c r="B215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C215" s="5">
         <v>106135.54</v>
@@ -41045,7 +41045,7 @@
         <v>43039</v>
       </c>
       <c r="B216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C216" s="5">
         <v>106407.27</v>
@@ -41110,7 +41110,7 @@
         <v>43069</v>
       </c>
       <c r="B217" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C217" s="5">
         <v>66991.740000000005</v>
@@ -41175,7 +41175,7 @@
         <v>43100</v>
       </c>
       <c r="B218" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C218" s="5">
         <v>52593.72</v>
@@ -41240,7 +41240,7 @@
         <v>43131</v>
       </c>
       <c r="B219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C219" s="5">
         <v>55144.46</v>
@@ -41305,7 +41305,7 @@
         <v>43159</v>
       </c>
       <c r="B220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C220" s="5">
         <v>50447.6</v>
@@ -41370,7 +41370,7 @@
         <v>43190</v>
       </c>
       <c r="B221" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C221" s="5">
         <v>59773.88</v>
@@ -41435,7 +41435,7 @@
         <v>43220</v>
       </c>
       <c r="B222" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C222" s="5">
         <v>89143.14</v>
@@ -41500,7 +41500,7 @@
         <v>43251</v>
       </c>
       <c r="B223" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C223" s="5">
         <v>199555.04</v>
@@ -41565,7 +41565,7 @@
         <v>43281</v>
       </c>
       <c r="B224" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C224" s="5">
         <v>135592.07</v>
@@ -41630,7 +41630,7 @@
         <v>43312</v>
       </c>
       <c r="B225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C225" s="5">
         <v>93776.53</v>
@@ -41695,7 +41695,7 @@
         <v>43343</v>
       </c>
       <c r="B226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C226" s="5">
         <v>112677.02</v>
@@ -41760,7 +41760,7 @@
         <v>43373</v>
       </c>
       <c r="B227" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C227" s="5">
         <v>70740.5</v>
@@ -41825,7 +41825,7 @@
         <v>43404</v>
       </c>
       <c r="B228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C228" s="5">
         <v>59613.22</v>
@@ -41890,7 +41890,7 @@
         <v>43434</v>
       </c>
       <c r="B229" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C229" s="5">
         <v>56110.41</v>
@@ -41955,7 +41955,7 @@
         <v>43465</v>
       </c>
       <c r="B230" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C230" s="5">
         <v>52012.56</v>
@@ -42020,7 +42020,7 @@
         <v>43496</v>
       </c>
       <c r="B231" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C231" s="5">
         <v>45582.15</v>
@@ -42085,7 +42085,7 @@
         <v>43524</v>
       </c>
       <c r="B232" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C232" s="5">
         <v>42055.54</v>
@@ -42150,7 +42150,7 @@
         <v>43555</v>
       </c>
       <c r="B233" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C233" s="5">
         <v>56969.26</v>
@@ -42215,7 +42215,7 @@
         <v>43585</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C234" s="5">
         <v>112611.57</v>
@@ -42280,7 +42280,7 @@
         <v>43616</v>
       </c>
       <c r="B235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C235" s="5">
         <v>220998.35</v>
@@ -42345,7 +42345,7 @@
         <v>43646</v>
       </c>
       <c r="B236" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C236" s="5">
         <v>486466.12</v>
@@ -42410,7 +42410,7 @@
         <v>43677</v>
       </c>
       <c r="B237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C237" s="5">
         <v>431464.46</v>
@@ -42475,7 +42475,7 @@
         <v>43708</v>
       </c>
       <c r="B238" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C238" s="5">
         <v>138916.35999999999</v>
@@ -42540,7 +42540,7 @@
         <v>43738</v>
       </c>
       <c r="B239" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C239" s="5">
         <v>107811.57</v>
@@ -42605,7 +42605,7 @@
         <v>43769</v>
       </c>
       <c r="B240" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C240" s="5">
         <v>97015.54</v>
@@ -42670,7 +42670,7 @@
         <v>43799</v>
       </c>
       <c r="B241" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C241" s="5">
         <v>67687.929999999993</v>
@@ -42735,7 +42735,7 @@
         <v>43830</v>
       </c>
       <c r="B242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C242" s="5">
         <v>54581.16</v>
